--- a/StudentEvaluation- TO PREDICT.xlsx
+++ b/StudentEvaluation- TO PREDICT.xlsx
@@ -1,25 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\! SB CUNY and Youtube\!CUNY\! ! SUMMER 2022 ! !\Project 2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/31f76b8e3ff59478/Documents/Data624 Github/DATA624/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="5" documentId="11_E6FBD736AFADA63279BA08C0E3825DAB3BC38605" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9C0582ED-69FF-48F7-8675-2E3997D59CBB}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Subset (2)" sheetId="1" r:id="rId1"/>
+    <sheet name="G1 PH Values from Mode" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="38">
   <si>
     <t>Brand Code</t>
   </si>
@@ -131,11 +133,14 @@
   <si>
     <t>C</t>
   </si>
+  <si>
+    <t>x</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -359,6 +364,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -394,6 +416,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -569,51 +608,51 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AG268"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L321" workbookViewId="0">
-      <selection activeCell="L352" sqref="L352"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.6640625" customWidth="1"/>
-    <col min="2" max="2" width="15.88671875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.109375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="3" customWidth="1"/>
-    <col min="5" max="5" width="16.6640625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="14.7109375" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" style="4" customWidth="1"/>
     <col min="6" max="6" width="14" style="5" customWidth="1"/>
-    <col min="7" max="7" width="8.33203125" style="6" customWidth="1"/>
-    <col min="8" max="8" width="11.109375" style="7" customWidth="1"/>
+    <col min="7" max="7" width="8.28515625" style="6" customWidth="1"/>
+    <col min="8" max="8" width="11.140625" style="7" customWidth="1"/>
     <col min="9" max="9" width="12" style="8" customWidth="1"/>
-    <col min="10" max="10" width="12.109375" style="9" customWidth="1"/>
-    <col min="11" max="11" width="17.88671875" style="10" customWidth="1"/>
-    <col min="12" max="12" width="15.33203125" style="11" customWidth="1"/>
+    <col min="10" max="10" width="12.140625" style="9" customWidth="1"/>
+    <col min="11" max="11" width="17.85546875" style="10" customWidth="1"/>
+    <col min="12" max="12" width="15.28515625" style="11" customWidth="1"/>
     <col min="13" max="13" width="17" style="12" customWidth="1"/>
     <col min="14" max="14" width="17" style="13" customWidth="1"/>
     <col min="15" max="15" width="17" style="14" customWidth="1"/>
     <col min="16" max="16" width="17" style="15" customWidth="1"/>
-    <col min="17" max="17" width="14.33203125" style="16" customWidth="1"/>
-    <col min="18" max="18" width="15.109375" style="17" customWidth="1"/>
-    <col min="19" max="19" width="15.6640625" style="18" customWidth="1"/>
+    <col min="17" max="17" width="14.28515625" style="16" customWidth="1"/>
+    <col min="18" max="18" width="15.140625" style="17" customWidth="1"/>
+    <col min="19" max="19" width="15.7109375" style="18" customWidth="1"/>
     <col min="20" max="20" width="14" style="19" customWidth="1"/>
-    <col min="21" max="21" width="13.109375" style="20" customWidth="1"/>
-    <col min="22" max="22" width="10.33203125" style="21" customWidth="1"/>
-    <col min="23" max="23" width="8.33203125" style="22" customWidth="1"/>
-    <col min="24" max="24" width="10.109375" style="23" customWidth="1"/>
-    <col min="25" max="25" width="20.109375" style="24" customWidth="1"/>
-    <col min="26" max="26" width="7.109375" style="25" customWidth="1"/>
-    <col min="27" max="27" width="16.33203125" style="26" customWidth="1"/>
-    <col min="28" max="28" width="16.6640625" style="27" customWidth="1"/>
-    <col min="29" max="29" width="20.33203125" style="28" customWidth="1"/>
-    <col min="30" max="30" width="15.6640625" style="29" customWidth="1"/>
-    <col min="31" max="31" width="11.44140625" style="30" customWidth="1"/>
-    <col min="32" max="32" width="11.44140625" style="31" customWidth="1"/>
-    <col min="33" max="33" width="13.5546875" style="32" customWidth="1"/>
+    <col min="21" max="21" width="13.140625" style="20" customWidth="1"/>
+    <col min="22" max="22" width="10.28515625" style="21" customWidth="1"/>
+    <col min="23" max="23" width="8.28515625" style="22" customWidth="1"/>
+    <col min="24" max="24" width="10.140625" style="23" customWidth="1"/>
+    <col min="25" max="25" width="20.140625" style="24" customWidth="1"/>
+    <col min="26" max="26" width="7.140625" style="25" customWidth="1"/>
+    <col min="27" max="27" width="16.28515625" style="26" customWidth="1"/>
+    <col min="28" max="28" width="16.7109375" style="27" customWidth="1"/>
+    <col min="29" max="29" width="20.28515625" style="28" customWidth="1"/>
+    <col min="30" max="30" width="15.7109375" style="29" customWidth="1"/>
+    <col min="31" max="31" width="11.42578125" style="30" customWidth="1"/>
+    <col min="32" max="32" width="11.42578125" style="31" customWidth="1"/>
+    <col min="33" max="33" width="13.5703125" style="32" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A1" s="33" t="s">
         <v>0</v>
       </c>
@@ -714,7 +753,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>33</v>
       </c>
@@ -784,6 +823,9 @@
       <c r="Y2" s="24">
         <v>-3.8</v>
       </c>
+      <c r="Z2" s="25">
+        <v>8.5801320384736997</v>
+      </c>
       <c r="AA2" s="26">
         <v>2.1999999999999999E-2</v>
       </c>
@@ -806,7 +848,7 @@
         <v>1.48</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>34</v>
       </c>
@@ -882,6 +924,9 @@
       <c r="Y3" s="24">
         <v>-4.4000000000000004</v>
       </c>
+      <c r="Z3" s="25">
+        <v>8.4810556832272006</v>
+      </c>
       <c r="AA3" s="26">
         <v>0.03</v>
       </c>
@@ -904,7 +949,7 @@
         <v>3.04</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>35</v>
       </c>
@@ -980,6 +1025,9 @@
       <c r="Y4" s="24">
         <v>-4.2</v>
       </c>
+      <c r="Z4" s="25">
+        <v>8.5964979067144007</v>
+      </c>
       <c r="AA4" s="26">
         <v>4.5999999999999999E-2</v>
       </c>
@@ -1002,7 +1050,7 @@
         <v>1.46</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>35</v>
       </c>
@@ -1072,6 +1120,9 @@
       <c r="Y5" s="24">
         <v>-4</v>
       </c>
+      <c r="Z5" s="25">
+        <v>8.6307277653526597</v>
+      </c>
       <c r="AB5" s="27">
         <v>120</v>
       </c>
@@ -1091,7 +1142,7 @@
         <v>1.48</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>35</v>
       </c>
@@ -1167,6 +1218,9 @@
       <c r="Y6" s="24">
         <v>-4</v>
       </c>
+      <c r="Z6" s="25">
+        <v>8.5095197985521605</v>
+      </c>
       <c r="AA6" s="26">
         <v>8.2000000000000003E-2</v>
       </c>
@@ -1189,7 +1243,7 @@
         <v>1.46</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>35</v>
       </c>
@@ -1262,6 +1316,9 @@
       <c r="Y7" s="24">
         <v>-3.8</v>
       </c>
+      <c r="Z7" s="25">
+        <v>8.5746943822932309</v>
+      </c>
       <c r="AA7" s="26">
         <v>6.4000000000000001E-2</v>
       </c>
@@ -1284,7 +1341,7 @@
         <v>1.44</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>34</v>
       </c>
@@ -1360,6 +1417,9 @@
       <c r="Y8" s="24">
         <v>-4.2</v>
       </c>
+      <c r="Z8" s="25">
+        <v>8.4643626892924804</v>
+      </c>
       <c r="AA8" s="26">
         <v>4.2000000000000003E-2</v>
       </c>
@@ -1382,7 +1442,7 @@
         <v>3.02</v>
       </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>35</v>
       </c>
@@ -1449,6 +1509,9 @@
       <c r="Y9" s="24">
         <v>-4.4000000000000004</v>
       </c>
+      <c r="Z9" s="25">
+        <v>8.5395400835439101</v>
+      </c>
       <c r="AA9" s="26">
         <v>9.6000000000000002E-2</v>
       </c>
@@ -1471,7 +1534,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>34</v>
       </c>
@@ -1547,6 +1610,9 @@
       <c r="Y10" s="24">
         <v>-4.4000000000000004</v>
       </c>
+      <c r="Z10" s="25">
+        <v>8.5183549275069801</v>
+      </c>
       <c r="AA10" s="26">
         <v>4.5999999999999999E-2</v>
       </c>
@@ -1569,7 +1635,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>33</v>
       </c>
@@ -1642,6 +1708,9 @@
       <c r="Y11" s="24">
         <v>-4.2</v>
       </c>
+      <c r="Z11" s="25">
+        <v>8.5660893238426095</v>
+      </c>
       <c r="AA11" s="26">
         <v>9.6000000000000002E-2</v>
       </c>
@@ -1664,7 +1733,7 @@
         <v>3.12</v>
       </c>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>35</v>
       </c>
@@ -1734,6 +1803,9 @@
       <c r="Y12" s="24">
         <v>-4.2</v>
       </c>
+      <c r="Z12" s="25">
+        <v>8.5557441145145798</v>
+      </c>
       <c r="AA12" s="26">
         <v>6.6000000000000003E-2</v>
       </c>
@@ -1756,7 +1828,7 @@
         <v>1.38</v>
       </c>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>35</v>
       </c>
@@ -1832,6 +1904,9 @@
       <c r="Y13" s="24">
         <v>-4.2</v>
       </c>
+      <c r="Z13" s="25">
+        <v>8.6210304160297699</v>
+      </c>
       <c r="AA13" s="26">
         <v>4.8000000000000001E-2</v>
       </c>
@@ -1854,7 +1929,7 @@
         <v>1.42</v>
       </c>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>35</v>
       </c>
@@ -1930,6 +2005,9 @@
       <c r="Y14" s="24">
         <v>-4.8</v>
       </c>
+      <c r="Z14" s="25">
+        <v>8.5809602023146105</v>
+      </c>
       <c r="AA14" s="26">
         <v>6.6000000000000003E-2</v>
       </c>
@@ -1952,7 +2030,7 @@
         <v>1.46</v>
       </c>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>35</v>
       </c>
@@ -2028,6 +2106,9 @@
       <c r="Y15" s="24">
         <v>-4.8</v>
       </c>
+      <c r="Z15" s="25">
+        <v>8.52618189919618</v>
+      </c>
       <c r="AA15" s="26">
         <v>0.05</v>
       </c>
@@ -2050,7 +2131,7 @@
         <v>1.44</v>
       </c>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>36</v>
       </c>
@@ -2126,6 +2207,9 @@
       <c r="Y16" s="24">
         <v>-4.2</v>
       </c>
+      <c r="Z16" s="25">
+        <v>8.3087273113175399</v>
+      </c>
       <c r="AA16" s="26">
         <v>4.5999999999999999E-2</v>
       </c>
@@ -2148,7 +2232,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B17" s="1">
         <v>5.2533333333333303</v>
       </c>
@@ -2215,6 +2299,9 @@
       <c r="Y17" s="24">
         <v>-4.8</v>
       </c>
+      <c r="Z17" s="25">
+        <v>8.53933116083717</v>
+      </c>
       <c r="AA17" s="26">
         <v>0.16</v>
       </c>
@@ -2237,7 +2324,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="18" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>35</v>
       </c>
@@ -2313,6 +2400,9 @@
       <c r="Y18" s="24">
         <v>-4</v>
       </c>
+      <c r="Z18" s="25">
+        <v>8.5666263542477097</v>
+      </c>
       <c r="AA18" s="26">
         <v>0.10199999999999999</v>
       </c>
@@ -2335,7 +2425,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="19" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>35</v>
       </c>
@@ -2411,6 +2501,9 @@
       <c r="Y19" s="24">
         <v>-4.4000000000000004</v>
       </c>
+      <c r="Z19" s="25">
+        <v>8.4704515942927792</v>
+      </c>
       <c r="AA19" s="26">
         <v>0.06</v>
       </c>
@@ -2433,7 +2526,7 @@
         <v>1.44</v>
       </c>
     </row>
-    <row r="20" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>33</v>
       </c>
@@ -2509,6 +2602,9 @@
       <c r="Y20" s="24">
         <v>-4.2</v>
       </c>
+      <c r="Z20" s="25">
+        <v>8.4753851172132393</v>
+      </c>
       <c r="AA20" s="26">
         <v>0.154</v>
       </c>
@@ -2531,7 +2627,7 @@
         <v>3.16</v>
       </c>
     </row>
-    <row r="21" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>35</v>
       </c>
@@ -2607,6 +2703,9 @@
       <c r="Y21" s="24">
         <v>-4.4000000000000004</v>
       </c>
+      <c r="Z21" s="25">
+        <v>8.6424148816708506</v>
+      </c>
       <c r="AA21" s="26">
         <v>2.1999999999999999E-2</v>
       </c>
@@ -2629,7 +2728,7 @@
         <v>1.46</v>
       </c>
     </row>
-    <row r="22" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>35</v>
       </c>
@@ -2705,6 +2804,9 @@
       <c r="Y22" s="24">
         <v>-4.4000000000000004</v>
       </c>
+      <c r="Z22" s="25">
+        <v>8.6060222176196906</v>
+      </c>
       <c r="AA22" s="26">
         <v>2.1999999999999999E-2</v>
       </c>
@@ -2727,7 +2829,7 @@
         <v>1.46</v>
       </c>
     </row>
-    <row r="23" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>35</v>
       </c>
@@ -2800,6 +2902,9 @@
       <c r="Y23" s="24">
         <v>-4.4000000000000004</v>
       </c>
+      <c r="Z23" s="25">
+        <v>8.5445970266709992</v>
+      </c>
       <c r="AA23" s="26">
         <v>5.3999999999999999E-2</v>
       </c>
@@ -2822,7 +2927,7 @@
         <v>1.36</v>
       </c>
     </row>
-    <row r="24" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>34</v>
       </c>
@@ -2892,6 +2997,9 @@
       <c r="Y24" s="24">
         <v>-4.4000000000000004</v>
       </c>
+      <c r="Z24" s="25">
+        <v>8.3892116973328701</v>
+      </c>
       <c r="AA24" s="26">
         <v>2.1999999999999999E-2</v>
       </c>
@@ -2914,7 +3022,7 @@
         <v>3.18</v>
       </c>
     </row>
-    <row r="25" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>35</v>
       </c>
@@ -2990,6 +3098,9 @@
       <c r="Y25" s="24">
         <v>-4</v>
       </c>
+      <c r="Z25" s="25">
+        <v>8.3789981530632698</v>
+      </c>
       <c r="AA25" s="26">
         <v>2.1999999999999999E-2</v>
       </c>
@@ -3012,7 +3123,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="26" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>35</v>
       </c>
@@ -3088,6 +3199,9 @@
       <c r="Y26" s="24">
         <v>-4.5999999999999996</v>
       </c>
+      <c r="Z26" s="25">
+        <v>8.4324716924770797</v>
+      </c>
       <c r="AA26" s="26">
         <v>2.4E-2</v>
       </c>
@@ -3110,7 +3224,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="27" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>36</v>
       </c>
@@ -3186,6 +3300,9 @@
       <c r="Y27" s="24">
         <v>-4.4000000000000004</v>
       </c>
+      <c r="Z27" s="25">
+        <v>8.5595036146250898</v>
+      </c>
       <c r="AA27" s="26">
         <v>2.1999999999999999E-2</v>
       </c>
@@ -3208,7 +3325,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="28" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>36</v>
       </c>
@@ -3284,6 +3401,9 @@
       <c r="Y28" s="24">
         <v>-4.2</v>
       </c>
+      <c r="Z28" s="25">
+        <v>8.3465365963074696</v>
+      </c>
       <c r="AA28" s="26">
         <v>2.1999999999999999E-2</v>
       </c>
@@ -3306,7 +3426,7 @@
         <v>1.52</v>
       </c>
     </row>
-    <row r="29" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>33</v>
       </c>
@@ -3382,6 +3502,9 @@
       <c r="Y29" s="24">
         <v>-3.8</v>
       </c>
+      <c r="Z29" s="25">
+        <v>8.4825403143926206</v>
+      </c>
       <c r="AA29" s="26">
         <v>0.17399999999999999</v>
       </c>
@@ -3404,7 +3527,7 @@
         <v>3.28</v>
       </c>
     </row>
-    <row r="30" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>33</v>
       </c>
@@ -3477,6 +3600,9 @@
       <c r="Y30" s="24">
         <v>-3.8</v>
       </c>
+      <c r="Z30" s="25">
+        <v>8.5774731589201103</v>
+      </c>
       <c r="AA30" s="26">
         <v>2.1999999999999999E-2</v>
       </c>
@@ -3499,7 +3625,7 @@
         <v>3.24</v>
       </c>
     </row>
-    <row r="31" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>33</v>
       </c>
@@ -3575,6 +3701,9 @@
       <c r="Y31" s="24">
         <v>-4</v>
       </c>
+      <c r="Z31" s="25">
+        <v>8.5397904021033799</v>
+      </c>
       <c r="AA31" s="26">
         <v>2.4E-2</v>
       </c>
@@ -3597,7 +3726,7 @@
         <v>3.26</v>
       </c>
     </row>
-    <row r="32" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>33</v>
       </c>
@@ -3673,6 +3802,9 @@
       <c r="Y32" s="24">
         <v>-4</v>
       </c>
+      <c r="Z32" s="25">
+        <v>8.4817581505137394</v>
+      </c>
       <c r="AA32" s="26">
         <v>6.6000000000000003E-2</v>
       </c>
@@ -3695,7 +3827,7 @@
         <v>3.28</v>
       </c>
     </row>
-    <row r="33" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>33</v>
       </c>
@@ -3768,6 +3900,9 @@
       <c r="Y33" s="24">
         <v>-4.2</v>
       </c>
+      <c r="Z33" s="25">
+        <v>8.6891218559752801</v>
+      </c>
       <c r="AA33" s="26">
         <v>2.4E-2</v>
       </c>
@@ -3790,7 +3925,7 @@
         <v>3.28</v>
       </c>
     </row>
-    <row r="34" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>35</v>
       </c>
@@ -3863,6 +3998,9 @@
       <c r="Y34" s="24">
         <v>-4.2</v>
       </c>
+      <c r="Z34" s="25">
+        <v>8.5205151776520598</v>
+      </c>
       <c r="AA34" s="26">
         <v>2.1999999999999999E-2</v>
       </c>
@@ -3885,7 +4023,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="35" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>35</v>
       </c>
@@ -3958,6 +4096,9 @@
       <c r="Y35" s="24">
         <v>-4.2</v>
       </c>
+      <c r="Z35" s="25">
+        <v>8.4597583126299192</v>
+      </c>
       <c r="AA35" s="26">
         <v>2.1999999999999999E-2</v>
       </c>
@@ -3980,7 +4121,7 @@
         <v>1.52</v>
       </c>
     </row>
-    <row r="36" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>35</v>
       </c>
@@ -4053,6 +4194,9 @@
       <c r="Y36" s="24">
         <v>-4</v>
       </c>
+      <c r="Z36" s="25">
+        <v>8.5263832306495502</v>
+      </c>
       <c r="AA36" s="26">
         <v>3.5999999999999997E-2</v>
       </c>
@@ -4075,7 +4219,7 @@
         <v>1.56</v>
       </c>
     </row>
-    <row r="37" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>34</v>
       </c>
@@ -4151,6 +4295,9 @@
       <c r="Y37" s="24">
         <v>-4</v>
       </c>
+      <c r="Z37" s="25">
+        <v>8.4220784362735408</v>
+      </c>
       <c r="AA37" s="26">
         <v>2.1999999999999999E-2</v>
       </c>
@@ -4173,7 +4320,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>34</v>
       </c>
@@ -4249,6 +4396,9 @@
       <c r="Y38" s="24">
         <v>-3.6</v>
       </c>
+      <c r="Z38" s="25">
+        <v>8.4245120486608691</v>
+      </c>
       <c r="AA38" s="26">
         <v>2.1999999999999999E-2</v>
       </c>
@@ -4271,7 +4421,7 @@
         <v>3.08</v>
       </c>
     </row>
-    <row r="39" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>34</v>
       </c>
@@ -4347,6 +4497,9 @@
       <c r="Y39" s="24">
         <v>-3.6</v>
       </c>
+      <c r="Z39" s="25">
+        <v>8.4308047118477596</v>
+      </c>
       <c r="AA39" s="26">
         <v>2.1999999999999999E-2</v>
       </c>
@@ -4369,7 +4522,7 @@
         <v>3.06</v>
       </c>
     </row>
-    <row r="40" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>33</v>
       </c>
@@ -4445,6 +4598,9 @@
       <c r="Y40" s="24">
         <v>-4.4000000000000004</v>
       </c>
+      <c r="Z40" s="25">
+        <v>8.5318361747351492</v>
+      </c>
       <c r="AA40" s="26">
         <v>5.1999999999999998E-2</v>
       </c>
@@ -4467,7 +4623,7 @@
         <v>3.32</v>
       </c>
     </row>
-    <row r="41" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>33</v>
       </c>
@@ -4540,6 +4696,9 @@
       <c r="Y41" s="24">
         <v>-4.4000000000000004</v>
       </c>
+      <c r="Z41" s="25">
+        <v>8.5986438740949307</v>
+      </c>
       <c r="AA41" s="26">
         <v>0.05</v>
       </c>
@@ -4562,7 +4721,7 @@
         <v>3.32</v>
       </c>
     </row>
-    <row r="42" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>33</v>
       </c>
@@ -4638,6 +4797,9 @@
       <c r="Y42" s="24">
         <v>-4.4000000000000004</v>
       </c>
+      <c r="Z42" s="25">
+        <v>8.5934855133137606</v>
+      </c>
       <c r="AA42" s="26">
         <v>4.2000000000000003E-2</v>
       </c>
@@ -4660,7 +4822,7 @@
         <v>3.34</v>
       </c>
     </row>
-    <row r="43" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>35</v>
       </c>
@@ -4733,6 +4895,9 @@
       <c r="Y43" s="24">
         <v>-4.5999999999999996</v>
       </c>
+      <c r="Z43" s="25">
+        <v>8.4239461673798406</v>
+      </c>
       <c r="AA43" s="26">
         <v>2.4E-2</v>
       </c>
@@ -4755,7 +4920,7 @@
         <v>1.38</v>
       </c>
     </row>
-    <row r="44" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>36</v>
       </c>
@@ -4831,6 +4996,9 @@
       <c r="Y44" s="24">
         <v>-5</v>
       </c>
+      <c r="Z44" s="25">
+        <v>8.4518675325100894</v>
+      </c>
       <c r="AA44" s="26">
         <v>2.1999999999999999E-2</v>
       </c>
@@ -4853,7 +5021,7 @@
         <v>1.34</v>
       </c>
     </row>
-    <row r="45" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>36</v>
       </c>
@@ -4929,6 +5097,9 @@
       <c r="Y45" s="24">
         <v>-5</v>
       </c>
+      <c r="Z45" s="25">
+        <v>8.5088875831356496</v>
+      </c>
       <c r="AA45" s="26">
         <v>2.1999999999999999E-2</v>
       </c>
@@ -4951,7 +5122,7 @@
         <v>1.38</v>
       </c>
     </row>
-    <row r="46" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>35</v>
       </c>
@@ -5027,6 +5198,9 @@
       <c r="Y46" s="24">
         <v>-5.4</v>
       </c>
+      <c r="Z46" s="25">
+        <v>8.4640797486519599</v>
+      </c>
       <c r="AA46" s="26">
         <v>2.4E-2</v>
       </c>
@@ -5049,7 +5223,7 @@
         <v>1.42</v>
       </c>
     </row>
-    <row r="47" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>33</v>
       </c>
@@ -5125,6 +5299,9 @@
       <c r="Y47" s="24">
         <v>-5</v>
       </c>
+      <c r="Z47" s="25">
+        <v>8.5013831728768796</v>
+      </c>
       <c r="AA47" s="26">
         <v>3.5999999999999997E-2</v>
       </c>
@@ -5147,7 +5324,7 @@
         <v>3.28</v>
       </c>
     </row>
-    <row r="48" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>33</v>
       </c>
@@ -5223,6 +5400,9 @@
       <c r="Y48" s="24">
         <v>-5.2</v>
       </c>
+      <c r="Z48" s="25">
+        <v>8.5332505077580691</v>
+      </c>
       <c r="AA48" s="26">
         <v>3.5999999999999997E-2</v>
       </c>
@@ -5245,7 +5425,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="49" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>35</v>
       </c>
@@ -5321,6 +5501,9 @@
       <c r="Y49" s="24">
         <v>-4.8</v>
       </c>
+      <c r="Z49" s="25">
+        <v>8.4995575548463602</v>
+      </c>
       <c r="AA49" s="26">
         <v>2.4E-2</v>
       </c>
@@ -5343,7 +5526,7 @@
         <v>1.48</v>
       </c>
     </row>
-    <row r="50" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>34</v>
       </c>
@@ -5419,6 +5602,9 @@
       <c r="Y50" s="24">
         <v>-5.2</v>
       </c>
+      <c r="Z50" s="25">
+        <v>8.5062318501090104</v>
+      </c>
       <c r="AA50" s="26">
         <v>2.4E-2</v>
       </c>
@@ -5441,7 +5627,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="51" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>34</v>
       </c>
@@ -5517,6 +5703,9 @@
       <c r="Y51" s="24">
         <v>-4.8</v>
       </c>
+      <c r="Z51" s="25">
+        <v>8.5307872334414991</v>
+      </c>
       <c r="AA51" s="26">
         <v>2.4E-2</v>
       </c>
@@ -5539,7 +5728,7 @@
         <v>3.06</v>
       </c>
     </row>
-    <row r="52" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>33</v>
       </c>
@@ -5609,6 +5798,9 @@
       <c r="Y52" s="24">
         <v>-5.2</v>
       </c>
+      <c r="Z52" s="25">
+        <v>8.5029296446082299</v>
+      </c>
       <c r="AA52" s="26">
         <v>7.0000000000000007E-2</v>
       </c>
@@ -5631,7 +5823,7 @@
         <v>3.38</v>
       </c>
     </row>
-    <row r="53" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>35</v>
       </c>
@@ -5707,6 +5899,9 @@
       <c r="Y53" s="24">
         <v>-4.8</v>
       </c>
+      <c r="Z53" s="25">
+        <v>8.5007390243082597</v>
+      </c>
       <c r="AA53" s="26">
         <v>2.1999999999999999E-2</v>
       </c>
@@ -5729,7 +5924,7 @@
         <v>1.42</v>
       </c>
     </row>
-    <row r="54" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>35</v>
       </c>
@@ -5802,6 +5997,9 @@
       <c r="Y54" s="24">
         <v>-5.2</v>
       </c>
+      <c r="Z54" s="25">
+        <v>8.5120649738294194</v>
+      </c>
       <c r="AA54" s="26">
         <v>0.122</v>
       </c>
@@ -5824,7 +6022,7 @@
         <v>1.48</v>
       </c>
     </row>
-    <row r="55" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>35</v>
       </c>
@@ -5897,6 +6095,9 @@
       <c r="Y55" s="24">
         <v>-5</v>
       </c>
+      <c r="Z55" s="25">
+        <v>8.5692525461676201</v>
+      </c>
       <c r="AA55" s="26">
         <v>2.4E-2</v>
       </c>
@@ -5919,7 +6120,7 @@
         <v>1.48</v>
       </c>
     </row>
-    <row r="56" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>35</v>
       </c>
@@ -5995,6 +6196,9 @@
       <c r="Y56" s="24">
         <v>-5</v>
       </c>
+      <c r="Z56" s="25">
+        <v>8.6031827341020506</v>
+      </c>
       <c r="AA56" s="26">
         <v>2.4E-2</v>
       </c>
@@ -6017,7 +6221,7 @@
         <v>1.48</v>
       </c>
     </row>
-    <row r="57" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>33</v>
       </c>
@@ -6093,6 +6297,9 @@
       <c r="Y57" s="24">
         <v>-5</v>
       </c>
+      <c r="Z57" s="25">
+        <v>8.5488951114912304</v>
+      </c>
       <c r="AA57" s="26">
         <v>4.2000000000000003E-2</v>
       </c>
@@ -6115,7 +6322,7 @@
         <v>3.28</v>
       </c>
     </row>
-    <row r="58" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>36</v>
       </c>
@@ -6191,6 +6398,9 @@
       <c r="Y58" s="24">
         <v>-5.4</v>
       </c>
+      <c r="Z58" s="25">
+        <v>8.4695621502967899</v>
+      </c>
       <c r="AA58" s="26">
         <v>0.12</v>
       </c>
@@ -6213,7 +6423,7 @@
         <v>1.32</v>
       </c>
     </row>
-    <row r="59" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>36</v>
       </c>
@@ -6289,6 +6499,9 @@
       <c r="Y59" s="24">
         <v>-5</v>
       </c>
+      <c r="Z59" s="25">
+        <v>8.5579498755475605</v>
+      </c>
       <c r="AA59" s="26">
         <v>6.8000000000000005E-2</v>
       </c>
@@ -6311,7 +6524,7 @@
         <v>1.48</v>
       </c>
     </row>
-    <row r="60" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>35</v>
       </c>
@@ -6387,6 +6600,9 @@
       <c r="Y60" s="24">
         <v>-5</v>
       </c>
+      <c r="Z60" s="25">
+        <v>8.4806209946399402</v>
+      </c>
       <c r="AA60" s="26">
         <v>6.6000000000000003E-2</v>
       </c>
@@ -6409,7 +6625,7 @@
         <v>1.38</v>
       </c>
     </row>
-    <row r="61" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>35</v>
       </c>
@@ -6485,6 +6701,9 @@
       <c r="Y61" s="24">
         <v>-4.5999999999999996</v>
       </c>
+      <c r="Z61" s="25">
+        <v>8.6633211574752291</v>
+      </c>
       <c r="AA61" s="26">
         <v>4.2000000000000003E-2</v>
       </c>
@@ -6507,7 +6726,7 @@
         <v>1.42</v>
       </c>
     </row>
-    <row r="62" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>35</v>
       </c>
@@ -6583,6 +6802,9 @@
       <c r="Y62" s="24">
         <v>-4.4000000000000004</v>
       </c>
+      <c r="Z62" s="25">
+        <v>8.6620985158108006</v>
+      </c>
       <c r="AA62" s="26">
         <v>5.8000000000000003E-2</v>
       </c>
@@ -6605,7 +6827,7 @@
         <v>1.42</v>
       </c>
     </row>
-    <row r="63" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>35</v>
       </c>
@@ -6681,6 +6903,9 @@
       <c r="Y63" s="24">
         <v>-4.8</v>
       </c>
+      <c r="Z63" s="25">
+        <v>8.5889125967794797</v>
+      </c>
       <c r="AA63" s="26">
         <v>5.8000000000000003E-2</v>
       </c>
@@ -6703,7 +6928,7 @@
         <v>1.44</v>
       </c>
     </row>
-    <row r="64" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>33</v>
       </c>
@@ -6779,6 +7004,9 @@
       <c r="Y64" s="24">
         <v>-4.4000000000000004</v>
       </c>
+      <c r="Z64" s="25">
+        <v>8.6152486315986092</v>
+      </c>
       <c r="AA64" s="26">
         <v>9.1999999999999998E-2</v>
       </c>
@@ -6801,7 +7029,7 @@
         <v>3.26</v>
       </c>
     </row>
-    <row r="65" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>35</v>
       </c>
@@ -6877,6 +7105,9 @@
       <c r="Y65" s="24">
         <v>-4.4000000000000004</v>
       </c>
+      <c r="Z65" s="25">
+        <v>8.6870352047411696</v>
+      </c>
       <c r="AA65" s="26">
         <v>0.14599999999999999</v>
       </c>
@@ -6899,7 +7130,7 @@
         <v>1.44</v>
       </c>
     </row>
-    <row r="66" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>35</v>
       </c>
@@ -6975,6 +7206,9 @@
       <c r="Y66" s="24">
         <v>-4.2</v>
       </c>
+      <c r="Z66" s="25">
+        <v>8.4971410735502797</v>
+      </c>
       <c r="AA66" s="26">
         <v>0.108</v>
       </c>
@@ -6997,7 +7231,7 @@
         <v>1.54</v>
       </c>
     </row>
-    <row r="67" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>35</v>
       </c>
@@ -7073,6 +7307,9 @@
       <c r="Y67" s="24">
         <v>-4.8</v>
       </c>
+      <c r="Z67" s="25">
+        <v>8.3611702706050597</v>
+      </c>
       <c r="AA67" s="26">
         <v>0.05</v>
       </c>
@@ -7095,7 +7332,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="68" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>35</v>
       </c>
@@ -7171,6 +7408,9 @@
       <c r="Y68" s="24">
         <v>-5.4</v>
       </c>
+      <c r="Z68" s="25">
+        <v>8.3989310620617506</v>
+      </c>
       <c r="AA68" s="26">
         <v>0.158</v>
       </c>
@@ -7193,7 +7433,7 @@
         <v>1.44</v>
       </c>
     </row>
-    <row r="69" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>35</v>
       </c>
@@ -7269,6 +7509,9 @@
       <c r="Y69" s="24">
         <v>-5.4</v>
       </c>
+      <c r="Z69" s="25">
+        <v>8.4066890196691002</v>
+      </c>
       <c r="AA69" s="26">
         <v>0.13800000000000001</v>
       </c>
@@ -7291,7 +7534,7 @@
         <v>1.46</v>
       </c>
     </row>
-    <row r="70" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>35</v>
       </c>
@@ -7367,6 +7610,9 @@
       <c r="Y70" s="24">
         <v>-5.6</v>
       </c>
+      <c r="Z70" s="25">
+        <v>8.3455628387563898</v>
+      </c>
       <c r="AA70" s="26">
         <v>0.13200000000000001</v>
       </c>
@@ -7389,7 +7635,7 @@
         <v>1.44</v>
       </c>
     </row>
-    <row r="71" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>35</v>
       </c>
@@ -7465,6 +7711,9 @@
       <c r="Y71" s="24">
         <v>-5.4</v>
       </c>
+      <c r="Z71" s="25">
+        <v>8.4399807454055402</v>
+      </c>
       <c r="AA71" s="26">
         <v>0.17199999999999999</v>
       </c>
@@ -7487,7 +7736,7 @@
         <v>1.44</v>
       </c>
     </row>
-    <row r="72" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>36</v>
       </c>
@@ -7563,6 +7812,9 @@
       <c r="Y72" s="24">
         <v>-5.2</v>
       </c>
+      <c r="Z72" s="25">
+        <v>8.5004124590250907</v>
+      </c>
       <c r="AA72" s="26">
         <v>0.22</v>
       </c>
@@ -7585,7 +7837,7 @@
         <v>1.32</v>
       </c>
     </row>
-    <row r="73" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>36</v>
       </c>
@@ -7661,6 +7913,9 @@
       <c r="Y73" s="24">
         <v>-5.4</v>
       </c>
+      <c r="Z73" s="25">
+        <v>8.3992902082949001</v>
+      </c>
       <c r="AA73" s="26">
         <v>0.126</v>
       </c>
@@ -7683,7 +7938,7 @@
         <v>1.42</v>
       </c>
     </row>
-    <row r="74" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>33</v>
       </c>
@@ -7759,6 +8014,9 @@
       <c r="Y74" s="24">
         <v>-5.8</v>
       </c>
+      <c r="Z74" s="25">
+        <v>8.3669531347268506</v>
+      </c>
       <c r="AA74" s="26">
         <v>8.5999999999999993E-2</v>
       </c>
@@ -7781,7 +8039,7 @@
         <v>3.32</v>
       </c>
     </row>
-    <row r="75" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>33</v>
       </c>
@@ -7857,6 +8115,9 @@
       <c r="Y75" s="24">
         <v>-5.8</v>
       </c>
+      <c r="Z75" s="25">
+        <v>8.5122246883505603</v>
+      </c>
       <c r="AA75" s="26">
         <v>0.11600000000000001</v>
       </c>
@@ -7879,7 +8140,7 @@
         <v>3.34</v>
       </c>
     </row>
-    <row r="76" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>34</v>
       </c>
@@ -7955,6 +8216,9 @@
       <c r="Y76" s="24">
         <v>-5.6</v>
       </c>
+      <c r="Z76" s="25">
+        <v>8.3254253540912799</v>
+      </c>
       <c r="AA76" s="26">
         <v>6.8000000000000005E-2</v>
       </c>
@@ -7977,7 +8241,7 @@
         <v>3.26</v>
       </c>
     </row>
-    <row r="77" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>34</v>
       </c>
@@ -8053,6 +8317,9 @@
       <c r="Y77" s="24">
         <v>-5.6</v>
       </c>
+      <c r="Z77" s="25">
+        <v>8.4974317159839305</v>
+      </c>
       <c r="AA77" s="26">
         <v>0.06</v>
       </c>
@@ -8075,7 +8342,7 @@
         <v>3.14</v>
       </c>
     </row>
-    <row r="78" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>33</v>
       </c>
@@ -8151,6 +8418,9 @@
       <c r="Y78" s="24">
         <v>-5.8</v>
       </c>
+      <c r="Z78" s="25">
+        <v>8.5194776952178497</v>
+      </c>
       <c r="AA78" s="26">
         <v>4.3999999999999997E-2</v>
       </c>
@@ -8170,7 +8440,7 @@
         <v>3.36</v>
       </c>
     </row>
-    <row r="79" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>35</v>
       </c>
@@ -8246,6 +8516,9 @@
       <c r="Y79" s="24">
         <v>-5</v>
       </c>
+      <c r="Z79" s="25">
+        <v>8.5211103339731906</v>
+      </c>
       <c r="AA79" s="26">
         <v>7.5999999999999998E-2</v>
       </c>
@@ -8268,7 +8541,7 @@
         <v>1.36</v>
       </c>
     </row>
-    <row r="80" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>33</v>
       </c>
@@ -8344,6 +8617,9 @@
       <c r="Y80" s="24">
         <v>-5.4</v>
       </c>
+      <c r="Z80" s="25">
+        <v>8.6275648219477308</v>
+      </c>
       <c r="AA80" s="26">
         <v>5.8000000000000003E-2</v>
       </c>
@@ -8366,7 +8642,7 @@
         <v>3.24</v>
       </c>
     </row>
-    <row r="81" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>33</v>
       </c>
@@ -8442,6 +8718,9 @@
       <c r="Y81" s="24">
         <v>-5.4</v>
       </c>
+      <c r="Z81" s="25">
+        <v>8.5938841093858098</v>
+      </c>
       <c r="AA81" s="26">
         <v>5.1999999999999998E-2</v>
       </c>
@@ -8464,7 +8743,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="82" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>35</v>
       </c>
@@ -8540,6 +8819,9 @@
       <c r="Y82" s="24">
         <v>-5.4</v>
       </c>
+      <c r="Z82" s="25">
+        <v>8.7244930761393906</v>
+      </c>
       <c r="AA82" s="26">
         <v>7.0000000000000007E-2</v>
       </c>
@@ -8562,7 +8844,7 @@
         <v>1.38</v>
       </c>
     </row>
-    <row r="83" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>36</v>
       </c>
@@ -8638,6 +8920,9 @@
       <c r="Y83" s="24">
         <v>-4.4000000000000004</v>
       </c>
+      <c r="Z83" s="25">
+        <v>8.5699106844419095</v>
+      </c>
       <c r="AA83" s="26">
         <v>0.16800000000000001</v>
       </c>
@@ -8660,7 +8945,7 @@
         <v>1.26</v>
       </c>
     </row>
-    <row r="84" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>36</v>
       </c>
@@ -8736,6 +9021,9 @@
       <c r="Y84" s="24">
         <v>-4.4000000000000004</v>
       </c>
+      <c r="Z84" s="25">
+        <v>8.5506125805107605</v>
+      </c>
       <c r="AA84" s="26">
         <v>0.17</v>
       </c>
@@ -8758,7 +9046,7 @@
         <v>1.26</v>
       </c>
     </row>
-    <row r="85" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>36</v>
       </c>
@@ -8834,6 +9122,9 @@
       <c r="Y85" s="24">
         <v>-4.4000000000000004</v>
       </c>
+      <c r="Z85" s="25">
+        <v>8.6617565932138305</v>
+      </c>
       <c r="AA85" s="26">
         <v>0.09</v>
       </c>
@@ -8856,7 +9147,7 @@
         <v>1.32</v>
       </c>
     </row>
-    <row r="86" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>35</v>
       </c>
@@ -8923,6 +9214,9 @@
       <c r="Y86" s="24">
         <v>-4.2</v>
       </c>
+      <c r="Z86" s="25">
+        <v>8.3752196985982206</v>
+      </c>
       <c r="AB86" s="27">
         <v>120</v>
       </c>
@@ -8942,7 +9236,7 @@
         <v>1.44</v>
       </c>
     </row>
-    <row r="87" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>35</v>
       </c>
@@ -9015,6 +9309,9 @@
       <c r="Y87" s="24">
         <v>-5</v>
       </c>
+      <c r="Z87" s="25">
+        <v>8.5031370557481001</v>
+      </c>
       <c r="AA87" s="26">
         <v>6.8000000000000005E-2</v>
       </c>
@@ -9037,7 +9334,7 @@
         <v>1.42</v>
       </c>
     </row>
-    <row r="88" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>33</v>
       </c>
@@ -9113,6 +9410,9 @@
       <c r="Y88" s="24">
         <v>-5</v>
       </c>
+      <c r="Z88" s="25">
+        <v>8.6075027356779703</v>
+      </c>
       <c r="AA88" s="26">
         <v>4.5999999999999999E-2</v>
       </c>
@@ -9135,7 +9435,7 @@
         <v>3.18</v>
       </c>
     </row>
-    <row r="89" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>35</v>
       </c>
@@ -9211,6 +9511,9 @@
       <c r="Y89" s="24">
         <v>-5.8</v>
       </c>
+      <c r="Z89" s="25">
+        <v>8.4239564707132395</v>
+      </c>
       <c r="AA89" s="26">
         <v>6.6000000000000003E-2</v>
       </c>
@@ -9233,7 +9536,7 @@
         <v>1.44</v>
       </c>
     </row>
-    <row r="90" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>34</v>
       </c>
@@ -9309,6 +9612,9 @@
       <c r="Y90" s="24">
         <v>-5.8</v>
       </c>
+      <c r="Z90" s="25">
+        <v>8.4222047600767294</v>
+      </c>
       <c r="AA90" s="26">
         <v>0.19400000000000001</v>
       </c>
@@ -9331,7 +9637,7 @@
         <v>2.86</v>
       </c>
     </row>
-    <row r="91" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>35</v>
       </c>
@@ -9407,6 +9713,9 @@
       <c r="Y91" s="24">
         <v>-5.4</v>
       </c>
+      <c r="Z91" s="25">
+        <v>8.5738490925024493</v>
+      </c>
       <c r="AA91" s="26">
         <v>8.2000000000000003E-2</v>
       </c>
@@ -9429,7 +9738,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="92" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>34</v>
       </c>
@@ -9502,6 +9811,9 @@
       <c r="Y92" s="24">
         <v>-5.2</v>
       </c>
+      <c r="Z92" s="25">
+        <v>8.5346191570140792</v>
+      </c>
       <c r="AA92" s="26">
         <v>8.4000000000000005E-2</v>
       </c>
@@ -9524,7 +9836,7 @@
         <v>2.84</v>
       </c>
     </row>
-    <row r="93" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>34</v>
       </c>
@@ -9573,6 +9885,9 @@
       <c r="X93" s="23">
         <v>3.48</v>
       </c>
+      <c r="Z93" s="25">
+        <v>8.2983201425290805</v>
+      </c>
       <c r="AC93" s="28">
         <v>46</v>
       </c>
@@ -9580,7 +9895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>34</v>
       </c>
@@ -9656,6 +9971,9 @@
       <c r="Y94" s="24">
         <v>-5.8</v>
       </c>
+      <c r="Z94" s="25">
+        <v>8.3385803663701896</v>
+      </c>
       <c r="AA94" s="26">
         <v>0.35399999999999998</v>
       </c>
@@ -9678,7 +9996,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="95" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>34</v>
       </c>
@@ -9751,6 +10069,9 @@
       <c r="Y95" s="24">
         <v>-5.8</v>
       </c>
+      <c r="Z95" s="25">
+        <v>8.3705674248029602</v>
+      </c>
       <c r="AA95" s="26">
         <v>0.39800000000000002</v>
       </c>
@@ -9773,7 +10094,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="96" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>33</v>
       </c>
@@ -9846,6 +10167,9 @@
       <c r="Y96" s="24">
         <v>-5.4</v>
       </c>
+      <c r="Z96" s="25">
+        <v>8.4810284081854395</v>
+      </c>
       <c r="AA96" s="26">
         <v>0.186</v>
       </c>
@@ -9868,7 +10192,7 @@
         <v>3.28</v>
       </c>
     </row>
-    <row r="97" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>35</v>
       </c>
@@ -9944,6 +10268,9 @@
       <c r="Y97" s="24">
         <v>-5.4</v>
       </c>
+      <c r="Z97" s="25">
+        <v>8.4858979311587195</v>
+      </c>
       <c r="AA97" s="26">
         <v>7.1999999999999995E-2</v>
       </c>
@@ -9966,7 +10293,7 @@
         <v>1.48</v>
       </c>
     </row>
-    <row r="98" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>33</v>
       </c>
@@ -10036,6 +10363,9 @@
       <c r="Y98" s="24">
         <v>-5.6</v>
       </c>
+      <c r="Z98" s="25">
+        <v>8.6189983817171694</v>
+      </c>
       <c r="AA98" s="26">
         <v>0.04</v>
       </c>
@@ -10058,7 +10388,7 @@
         <v>3.26</v>
       </c>
     </row>
-    <row r="99" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>35</v>
       </c>
@@ -10134,6 +10464,9 @@
       <c r="Y99" s="24">
         <v>-5.2</v>
       </c>
+      <c r="Z99" s="25">
+        <v>8.5373722382894197</v>
+      </c>
       <c r="AA99" s="26">
         <v>7.0000000000000007E-2</v>
       </c>
@@ -10156,7 +10489,7 @@
         <v>1.44</v>
       </c>
     </row>
-    <row r="100" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>34</v>
       </c>
@@ -10229,6 +10562,9 @@
       <c r="Y100" s="24">
         <v>-4.5999999999999996</v>
       </c>
+      <c r="Z100" s="25">
+        <v>8.4403031204608094</v>
+      </c>
       <c r="AA100" s="26">
         <v>5.8000000000000003E-2</v>
       </c>
@@ -10251,7 +10587,7 @@
         <v>3.04</v>
       </c>
     </row>
-    <row r="101" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>34</v>
       </c>
@@ -10327,6 +10663,9 @@
       <c r="Y101" s="24">
         <v>-4.8</v>
       </c>
+      <c r="Z101" s="25">
+        <v>8.4404665239249095</v>
+      </c>
       <c r="AA101" s="26">
         <v>6.6000000000000003E-2</v>
       </c>
@@ -10349,7 +10688,7 @@
         <v>3.04</v>
       </c>
     </row>
-    <row r="102" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>33</v>
       </c>
@@ -10422,6 +10761,9 @@
       <c r="Y102" s="24">
         <v>-5</v>
       </c>
+      <c r="Z102" s="25">
+        <v>8.5707310230964708</v>
+      </c>
       <c r="AA102" s="26">
         <v>5.8000000000000003E-2</v>
       </c>
@@ -10444,7 +10786,7 @@
         <v>3.24</v>
       </c>
     </row>
-    <row r="103" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>33</v>
       </c>
@@ -10520,6 +10862,9 @@
       <c r="Y103" s="24">
         <v>-5</v>
       </c>
+      <c r="Z103" s="25">
+        <v>8.6588811097258898</v>
+      </c>
       <c r="AA103" s="26">
         <v>0.104</v>
       </c>
@@ -10542,7 +10887,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="104" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>35</v>
       </c>
@@ -10618,6 +10963,9 @@
       <c r="Y104" s="24">
         <v>-5.2</v>
       </c>
+      <c r="Z104" s="25">
+        <v>8.6851111343497394</v>
+      </c>
       <c r="AA104" s="26">
         <v>0.108</v>
       </c>
@@ -10640,7 +10988,7 @@
         <v>1.44</v>
       </c>
     </row>
-    <row r="105" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>35</v>
       </c>
@@ -10716,6 +11064,9 @@
       <c r="Y105" s="24">
         <v>-5.4</v>
       </c>
+      <c r="Z105" s="25">
+        <v>8.6370131072088299</v>
+      </c>
       <c r="AA105" s="26">
         <v>0.11600000000000001</v>
       </c>
@@ -10738,7 +11089,7 @@
         <v>1.36</v>
       </c>
     </row>
-    <row r="106" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>35</v>
       </c>
@@ -10814,6 +11165,9 @@
       <c r="Y106" s="24">
         <v>-4.8</v>
       </c>
+      <c r="Z106" s="25">
+        <v>8.7008461547820595</v>
+      </c>
       <c r="AA106" s="26">
         <v>0.08</v>
       </c>
@@ -10836,7 +11190,7 @@
         <v>1.42</v>
       </c>
     </row>
-    <row r="107" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>35</v>
       </c>
@@ -10912,6 +11266,9 @@
       <c r="Y107" s="24">
         <v>-4.8</v>
       </c>
+      <c r="Z107" s="25">
+        <v>8.6141926736012397</v>
+      </c>
       <c r="AA107" s="26">
         <v>5.1999999999999998E-2</v>
       </c>
@@ -10934,7 +11291,7 @@
         <v>1.36</v>
       </c>
     </row>
-    <row r="108" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>36</v>
       </c>
@@ -11010,6 +11367,9 @@
       <c r="Y108" s="24">
         <v>-5</v>
       </c>
+      <c r="Z108" s="25">
+        <v>8.76840434066896</v>
+      </c>
       <c r="AA108" s="26">
         <v>0.184</v>
       </c>
@@ -11032,7 +11392,7 @@
         <v>1.38</v>
       </c>
     </row>
-    <row r="109" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>36</v>
       </c>
@@ -11108,6 +11468,9 @@
       <c r="Y109" s="24">
         <v>-5.4</v>
       </c>
+      <c r="Z109" s="25">
+        <v>8.5162631117527106</v>
+      </c>
       <c r="AA109" s="26">
         <v>0.122</v>
       </c>
@@ -11130,7 +11493,7 @@
         <v>1.44</v>
       </c>
     </row>
-    <row r="110" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>36</v>
       </c>
@@ -11206,6 +11569,9 @@
       <c r="Y110" s="24">
         <v>-5.4</v>
       </c>
+      <c r="Z110" s="25">
+        <v>8.5723521065914401</v>
+      </c>
       <c r="AA110" s="26">
         <v>0.11600000000000001</v>
       </c>
@@ -11228,7 +11594,7 @@
         <v>1.38</v>
       </c>
     </row>
-    <row r="111" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>36</v>
       </c>
@@ -11301,6 +11667,9 @@
       <c r="Y111" s="24">
         <v>-5.4</v>
       </c>
+      <c r="Z111" s="25">
+        <v>8.4789574587378596</v>
+      </c>
       <c r="AA111" s="26">
         <v>8.7999999999999995E-2</v>
       </c>
@@ -11323,7 +11692,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="112" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>35</v>
       </c>
@@ -11399,6 +11768,9 @@
       <c r="Y112" s="24">
         <v>-5.8</v>
       </c>
+      <c r="Z112" s="25">
+        <v>8.5148078867326795</v>
+      </c>
       <c r="AA112" s="26">
         <v>7.3999999999999996E-2</v>
       </c>
@@ -11421,7 +11793,7 @@
         <v>1.34</v>
       </c>
     </row>
-    <row r="113" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>35</v>
       </c>
@@ -11497,6 +11869,9 @@
       <c r="Y113" s="24">
         <v>-5.8</v>
       </c>
+      <c r="Z113" s="25">
+        <v>8.5296654053185392</v>
+      </c>
       <c r="AA113" s="26">
         <v>7.1999999999999995E-2</v>
       </c>
@@ -11519,7 +11894,7 @@
         <v>1.34</v>
       </c>
     </row>
-    <row r="114" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>33</v>
       </c>
@@ -11595,6 +11970,9 @@
       <c r="Y114" s="24">
         <v>-5</v>
       </c>
+      <c r="Z114" s="25">
+        <v>8.5207866761426398</v>
+      </c>
       <c r="AA114" s="26">
         <v>0.06</v>
       </c>
@@ -11617,7 +11995,7 @@
         <v>3.08</v>
       </c>
     </row>
-    <row r="115" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>33</v>
       </c>
@@ -11693,6 +12071,9 @@
       <c r="Y115" s="24">
         <v>-5.4</v>
       </c>
+      <c r="Z115" s="25">
+        <v>8.5781761172088196</v>
+      </c>
       <c r="AA115" s="26">
         <v>5.3999999999999999E-2</v>
       </c>
@@ -11715,7 +12096,7 @@
         <v>3.04</v>
       </c>
     </row>
-    <row r="116" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>35</v>
       </c>
@@ -11785,6 +12166,9 @@
       <c r="Y116" s="24">
         <v>-5.6</v>
       </c>
+      <c r="Z116" s="25">
+        <v>8.5495073031453508</v>
+      </c>
       <c r="AA116" s="26">
         <v>0.11600000000000001</v>
       </c>
@@ -11807,7 +12191,7 @@
         <v>1.26</v>
       </c>
     </row>
-    <row r="117" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>35</v>
       </c>
@@ -11883,6 +12267,9 @@
       <c r="Y117" s="24">
         <v>-5.4</v>
       </c>
+      <c r="Z117" s="25">
+        <v>8.6207697015919909</v>
+      </c>
       <c r="AA117" s="26">
         <v>5.5999999999999999E-3</v>
       </c>
@@ -11905,7 +12292,7 @@
         <v>1.38</v>
       </c>
     </row>
-    <row r="118" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>35</v>
       </c>
@@ -11981,6 +12368,9 @@
       <c r="Y118" s="24">
         <v>-5.4</v>
       </c>
+      <c r="Z118" s="25">
+        <v>8.6664727744113605</v>
+      </c>
       <c r="AA118" s="26">
         <v>8.8000000000000005E-3</v>
       </c>
@@ -12003,7 +12393,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="119" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>33</v>
       </c>
@@ -12076,6 +12466,9 @@
       <c r="Y119" s="24">
         <v>-5.2</v>
       </c>
+      <c r="Z119" s="25">
+        <v>8.5767205528574593</v>
+      </c>
       <c r="AA119" s="26">
         <v>5.1999999999999998E-3</v>
       </c>
@@ -12098,7 +12491,7 @@
         <v>3.16</v>
       </c>
     </row>
-    <row r="120" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>35</v>
       </c>
@@ -12174,6 +12567,9 @@
       <c r="Y120" s="24">
         <v>-5</v>
       </c>
+      <c r="Z120" s="25">
+        <v>8.6195264789676909</v>
+      </c>
       <c r="AA120" s="26">
         <v>7.6E-3</v>
       </c>
@@ -12196,7 +12592,7 @@
         <v>1.36</v>
       </c>
     </row>
-    <row r="121" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>35</v>
       </c>
@@ -12272,6 +12668,9 @@
       <c r="Y121" s="24">
         <v>-4.8</v>
       </c>
+      <c r="Z121" s="25">
+        <v>8.5603255201164092</v>
+      </c>
       <c r="AA121" s="26">
         <v>1.14E-2</v>
       </c>
@@ -12294,7 +12693,7 @@
         <v>1.44</v>
       </c>
     </row>
-    <row r="122" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>35</v>
       </c>
@@ -12367,6 +12766,9 @@
       <c r="Y122" s="24">
         <v>-5.4</v>
       </c>
+      <c r="Z122" s="25">
+        <v>8.6086260406634594</v>
+      </c>
       <c r="AA122" s="26">
         <v>8.8000000000000005E-3</v>
       </c>
@@ -12389,7 +12791,7 @@
         <v>1.46</v>
       </c>
     </row>
-    <row r="123" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>35</v>
       </c>
@@ -12465,6 +12867,9 @@
       <c r="Y123" s="24">
         <v>-5.6</v>
       </c>
+      <c r="Z123" s="25">
+        <v>8.6322433013768904</v>
+      </c>
       <c r="AA123" s="26">
         <v>7.0000000000000001E-3</v>
       </c>
@@ -12487,7 +12892,7 @@
         <v>1.38</v>
       </c>
     </row>
-    <row r="124" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>35</v>
       </c>
@@ -12563,6 +12968,9 @@
       <c r="Y124" s="24">
         <v>-5.6</v>
       </c>
+      <c r="Z124" s="25">
+        <v>8.7021888888923602</v>
+      </c>
       <c r="AA124" s="26">
         <v>7.0000000000000001E-3</v>
       </c>
@@ -12585,7 +12993,7 @@
         <v>1.38</v>
       </c>
     </row>
-    <row r="125" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>35</v>
       </c>
@@ -12661,6 +13069,9 @@
       <c r="Y125" s="24">
         <v>-5.2</v>
       </c>
+      <c r="Z125" s="25">
+        <v>8.6317862940419996</v>
+      </c>
       <c r="AA125" s="26">
         <v>8.3999999999999995E-3</v>
       </c>
@@ -12683,7 +13094,7 @@
         <v>1.36</v>
       </c>
     </row>
-    <row r="126" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>35</v>
       </c>
@@ -12759,6 +13170,9 @@
       <c r="Y126" s="24">
         <v>-5.2</v>
       </c>
+      <c r="Z126" s="25">
+        <v>8.5751521839719391</v>
+      </c>
       <c r="AA126" s="26">
         <v>6.6E-3</v>
       </c>
@@ -12781,7 +13195,7 @@
         <v>1.32</v>
       </c>
     </row>
-    <row r="127" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>34</v>
       </c>
@@ -12857,6 +13271,9 @@
       <c r="Y127" s="24">
         <v>-5.6</v>
       </c>
+      <c r="Z127" s="25">
+        <v>8.4687685725455903</v>
+      </c>
       <c r="AA127" s="26">
         <v>5.0000000000000001E-3</v>
       </c>
@@ -12879,7 +13296,7 @@
         <v>2.96</v>
       </c>
     </row>
-    <row r="128" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B128" s="1">
         <v>5.1533333333333298</v>
       </c>
@@ -12952,6 +13369,9 @@
       <c r="Y128" s="24">
         <v>-5.4</v>
       </c>
+      <c r="Z128" s="25">
+        <v>8.4259227313012097</v>
+      </c>
       <c r="AA128" s="26">
         <v>9.4000000000000004E-3</v>
       </c>
@@ -12974,7 +13394,7 @@
         <v>1.46</v>
       </c>
     </row>
-    <row r="129" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>36</v>
       </c>
@@ -13050,6 +13470,9 @@
       <c r="Y129" s="24">
         <v>-5.4</v>
       </c>
+      <c r="Z129" s="25">
+        <v>8.3067921561023503</v>
+      </c>
       <c r="AA129" s="26">
         <v>1.84E-2</v>
       </c>
@@ -13069,7 +13492,7 @@
         <v>1.64</v>
       </c>
     </row>
-    <row r="130" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>33</v>
       </c>
@@ -13145,6 +13568,9 @@
       <c r="Y130" s="24">
         <v>-5.4</v>
       </c>
+      <c r="Z130" s="25">
+        <v>8.4186074879814292</v>
+      </c>
       <c r="AA130" s="26">
         <v>8.0000000000000002E-3</v>
       </c>
@@ -13167,7 +13593,7 @@
         <v>3.04</v>
       </c>
     </row>
-    <row r="131" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>33</v>
       </c>
@@ -13243,6 +13669,9 @@
       <c r="Y131" s="24">
         <v>-5.4</v>
       </c>
+      <c r="Z131" s="25">
+        <v>8.4543852373729997</v>
+      </c>
       <c r="AA131" s="26">
         <v>8.8000000000000005E-3</v>
       </c>
@@ -13265,7 +13694,7 @@
         <v>3.06</v>
       </c>
     </row>
-    <row r="132" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>35</v>
       </c>
@@ -13338,6 +13767,9 @@
       <c r="Y132" s="24">
         <v>-5.4</v>
       </c>
+      <c r="Z132" s="25">
+        <v>8.5656556738149199</v>
+      </c>
       <c r="AA132" s="26">
         <v>7.1999999999999998E-3</v>
       </c>
@@ -13360,7 +13792,7 @@
         <v>1.22</v>
       </c>
     </row>
-    <row r="133" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>35</v>
       </c>
@@ -13433,6 +13865,9 @@
       <c r="Y133" s="24">
         <v>-5.2</v>
       </c>
+      <c r="Z133" s="25">
+        <v>8.5428564497013895</v>
+      </c>
       <c r="AA133" s="26">
         <v>9.7999999999999997E-3</v>
       </c>
@@ -13455,7 +13890,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="134" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>33</v>
       </c>
@@ -13528,6 +13963,9 @@
       <c r="Y134" s="24">
         <v>-5.8</v>
       </c>
+      <c r="Z134" s="25">
+        <v>8.5705572134712895</v>
+      </c>
       <c r="AA134" s="26">
         <v>2.64E-2</v>
       </c>
@@ -13550,7 +13988,7 @@
         <v>3.06</v>
       </c>
     </row>
-    <row r="135" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>36</v>
       </c>
@@ -13620,6 +14058,9 @@
       <c r="Y135" s="24">
         <v>-5.8</v>
       </c>
+      <c r="Z135" s="25">
+        <v>8.4877843820439196</v>
+      </c>
       <c r="AA135" s="26">
         <v>1.0800000000000001E-2</v>
       </c>
@@ -13642,7 +14083,7 @@
         <v>1.44</v>
       </c>
     </row>
-    <row r="136" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>34</v>
       </c>
@@ -13718,6 +14159,9 @@
       <c r="Y136" s="24">
         <v>-5.8</v>
       </c>
+      <c r="Z136" s="25">
+        <v>8.4252400172117206</v>
+      </c>
       <c r="AA136" s="26">
         <v>1.14E-2</v>
       </c>
@@ -13740,7 +14184,7 @@
         <v>2.98</v>
       </c>
     </row>
-    <row r="137" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>34</v>
       </c>
@@ -13816,6 +14260,9 @@
       <c r="Y137" s="24">
         <v>-5.2</v>
       </c>
+      <c r="Z137" s="25">
+        <v>8.4949841036081501</v>
+      </c>
       <c r="AA137" s="26">
         <v>1.9400000000000001E-2</v>
       </c>
@@ -13838,7 +14285,7 @@
         <v>2.96</v>
       </c>
     </row>
-    <row r="138" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>33</v>
       </c>
@@ -13908,6 +14355,9 @@
       <c r="Y138" s="24">
         <v>-4.5999999999999996</v>
       </c>
+      <c r="Z138" s="25">
+        <v>8.4619211694566605</v>
+      </c>
       <c r="AA138" s="26">
         <v>4.6600000000000003E-2</v>
       </c>
@@ -13930,7 +14380,7 @@
         <v>3.02</v>
       </c>
     </row>
-    <row r="139" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>33</v>
       </c>
@@ -14003,6 +14453,9 @@
       <c r="Y139" s="24">
         <v>-4.5999999999999996</v>
       </c>
+      <c r="Z139" s="25">
+        <v>8.4506711016209408</v>
+      </c>
       <c r="AA139" s="26">
         <v>4.3400000000000001E-2</v>
       </c>
@@ -14025,7 +14478,7 @@
         <v>3.08</v>
       </c>
     </row>
-    <row r="140" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>33</v>
       </c>
@@ -14098,6 +14551,9 @@
       <c r="Y140" s="24">
         <v>-4.5999999999999996</v>
       </c>
+      <c r="Z140" s="25">
+        <v>8.4467933773149504</v>
+      </c>
       <c r="AA140" s="26">
         <v>4.36E-2</v>
       </c>
@@ -14120,7 +14576,7 @@
         <v>3.04</v>
       </c>
     </row>
-    <row r="141" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>33</v>
       </c>
@@ -14193,6 +14649,9 @@
       <c r="Y141" s="24">
         <v>-5</v>
       </c>
+      <c r="Z141" s="25">
+        <v>8.4618487170742895</v>
+      </c>
       <c r="AA141" s="26">
         <v>4.6800000000000001E-2</v>
       </c>
@@ -14215,7 +14674,7 @@
         <v>3.08</v>
       </c>
     </row>
-    <row r="142" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>35</v>
       </c>
@@ -14291,6 +14750,9 @@
       <c r="Y142" s="24">
         <v>-5.8</v>
       </c>
+      <c r="Z142" s="25">
+        <v>8.4966395006994695</v>
+      </c>
       <c r="AA142" s="26">
         <v>4.5400000000000003E-2</v>
       </c>
@@ -14313,7 +14775,7 @@
         <v>1.34</v>
       </c>
     </row>
-    <row r="143" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>35</v>
       </c>
@@ -14389,6 +14851,9 @@
       <c r="Y143" s="24">
         <v>-5.6</v>
       </c>
+      <c r="Z143" s="25">
+        <v>8.3914723638475195</v>
+      </c>
       <c r="AA143" s="26">
         <v>5.1999999999999998E-2</v>
       </c>
@@ -14411,7 +14876,7 @@
         <v>1.32</v>
       </c>
     </row>
-    <row r="144" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>35</v>
       </c>
@@ -14487,6 +14952,9 @@
       <c r="Y144" s="24">
         <v>-5.6</v>
       </c>
+      <c r="Z144" s="25">
+        <v>8.4828190031086201</v>
+      </c>
       <c r="AA144" s="26">
         <v>5.7200000000000001E-2</v>
       </c>
@@ -14509,7 +14977,7 @@
         <v>1.34</v>
       </c>
     </row>
-    <row r="145" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>35</v>
       </c>
@@ -14585,6 +15053,9 @@
       <c r="Y145" s="24">
         <v>-5.8</v>
       </c>
+      <c r="Z145" s="25">
+        <v>8.5265383230665304</v>
+      </c>
       <c r="AA145" s="26">
         <v>3.7400000000000003E-2</v>
       </c>
@@ -14604,7 +15075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>34</v>
       </c>
@@ -14680,6 +15151,9 @@
       <c r="Y146" s="24">
         <v>-6.2</v>
       </c>
+      <c r="Z146" s="25">
+        <v>8.3629744439232105</v>
+      </c>
       <c r="AA146" s="26">
         <v>3.2199999999999999E-2</v>
       </c>
@@ -14702,7 +15176,7 @@
         <v>3.06</v>
       </c>
     </row>
-    <row r="147" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>34</v>
       </c>
@@ -14778,6 +15252,9 @@
       <c r="Y147" s="24">
         <v>-6.2</v>
       </c>
+      <c r="Z147" s="25">
+        <v>8.5284898214558904</v>
+      </c>
       <c r="AA147" s="26">
         <v>3.3000000000000002E-2</v>
       </c>
@@ -14800,7 +15277,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="148" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>34</v>
       </c>
@@ -14876,6 +15353,9 @@
       <c r="Y148" s="24">
         <v>-6.2</v>
       </c>
+      <c r="Z148" s="25">
+        <v>8.5242788583503799</v>
+      </c>
       <c r="AA148" s="26">
         <v>3.32E-2</v>
       </c>
@@ -14898,7 +15378,7 @@
         <v>3.08</v>
       </c>
     </row>
-    <row r="149" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>35</v>
       </c>
@@ -14974,6 +15454,9 @@
       <c r="Y149" s="24">
         <v>-6.2</v>
       </c>
+      <c r="Z149" s="25">
+        <v>8.52009909830395</v>
+      </c>
       <c r="AA149" s="26">
         <v>3.6400000000000002E-2</v>
       </c>
@@ -14996,7 +15479,7 @@
         <v>1.38</v>
       </c>
     </row>
-    <row r="150" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>35</v>
       </c>
@@ -15069,6 +15552,9 @@
       <c r="Y150" s="24">
         <v>-5.8</v>
       </c>
+      <c r="Z150" s="25">
+        <v>8.5124308732703593</v>
+      </c>
       <c r="AA150" s="26">
         <v>4.4400000000000002E-2</v>
       </c>
@@ -15091,7 +15577,7 @@
         <v>1.36</v>
       </c>
     </row>
-    <row r="151" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>35</v>
       </c>
@@ -15167,6 +15653,9 @@
       <c r="Y151" s="24">
         <v>-6</v>
       </c>
+      <c r="Z151" s="25">
+        <v>8.5679641616268594</v>
+      </c>
       <c r="AA151" s="26">
         <v>4.1399999999999999E-2</v>
       </c>
@@ -15189,7 +15678,7 @@
         <v>1.36</v>
       </c>
     </row>
-    <row r="152" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>35</v>
       </c>
@@ -15265,6 +15754,9 @@
       <c r="Y152" s="24">
         <v>-6</v>
       </c>
+      <c r="Z152" s="25">
+        <v>8.5803498249263495</v>
+      </c>
       <c r="AA152" s="26">
         <v>4.1399999999999999E-2</v>
       </c>
@@ -15287,7 +15779,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="153" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>35</v>
       </c>
@@ -15363,6 +15855,9 @@
       <c r="Y153" s="24">
         <v>-5.6</v>
       </c>
+      <c r="Z153" s="25">
+        <v>8.5258222632462104</v>
+      </c>
       <c r="AA153" s="26">
         <v>3.7199999999999997E-2</v>
       </c>
@@ -15385,7 +15880,7 @@
         <v>1.42</v>
       </c>
     </row>
-    <row r="154" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>34</v>
       </c>
@@ -15461,6 +15956,9 @@
       <c r="Y154" s="24">
         <v>-5.2</v>
       </c>
+      <c r="Z154" s="25">
+        <v>8.4531026677374701</v>
+      </c>
       <c r="AA154" s="26">
         <v>3.4000000000000002E-2</v>
       </c>
@@ -15483,7 +15981,7 @@
         <v>2.98</v>
       </c>
     </row>
-    <row r="155" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>35</v>
       </c>
@@ -15559,6 +16057,9 @@
       <c r="Y155" s="24">
         <v>-5.6</v>
       </c>
+      <c r="Z155" s="25">
+        <v>8.6846447388477905</v>
+      </c>
       <c r="AA155" s="26">
         <v>3.2800000000000003E-2</v>
       </c>
@@ -15581,7 +16082,7 @@
         <v>1.32</v>
       </c>
     </row>
-    <row r="156" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>36</v>
       </c>
@@ -15657,6 +16158,9 @@
       <c r="Y156" s="24">
         <v>-5.4</v>
       </c>
+      <c r="Z156" s="25">
+        <v>8.4890304529949301</v>
+      </c>
       <c r="AA156" s="26">
         <v>3.3599999999999998E-2</v>
       </c>
@@ -15679,7 +16183,7 @@
         <v>1.68</v>
       </c>
     </row>
-    <row r="157" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>36</v>
       </c>
@@ -15755,6 +16259,9 @@
       <c r="Y157" s="24">
         <v>-5.4</v>
       </c>
+      <c r="Z157" s="25">
+        <v>8.5785325076601797</v>
+      </c>
       <c r="AA157" s="26">
         <v>3.2399999999999998E-2</v>
       </c>
@@ -15777,7 +16284,7 @@
         <v>1.66</v>
       </c>
     </row>
-    <row r="158" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>36</v>
       </c>
@@ -15853,6 +16360,9 @@
       <c r="Y158" s="24">
         <v>-5.4</v>
       </c>
+      <c r="Z158" s="25">
+        <v>8.5739249664758095</v>
+      </c>
       <c r="AA158" s="26">
         <v>3.6799999999999999E-2</v>
       </c>
@@ -15875,7 +16385,7 @@
         <v>1.72</v>
       </c>
     </row>
-    <row r="159" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>35</v>
       </c>
@@ -15951,6 +16461,9 @@
       <c r="Y159" s="24">
         <v>-5.4</v>
       </c>
+      <c r="Z159" s="25">
+        <v>8.5149584470197297</v>
+      </c>
       <c r="AA159" s="26">
         <v>2.9399999999999999E-2</v>
       </c>
@@ -15973,7 +16486,7 @@
         <v>1.36</v>
       </c>
     </row>
-    <row r="160" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>35</v>
       </c>
@@ -16049,6 +16562,9 @@
       <c r="Y160" s="24">
         <v>-5.4</v>
       </c>
+      <c r="Z160" s="25">
+        <v>8.5404600834272806</v>
+      </c>
       <c r="AA160" s="26">
         <v>3.04E-2</v>
       </c>
@@ -16071,7 +16587,7 @@
         <v>1.32</v>
       </c>
     </row>
-    <row r="161" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>35</v>
       </c>
@@ -16147,6 +16663,9 @@
       <c r="Y161" s="24">
         <v>-5.4</v>
       </c>
+      <c r="Z161" s="25">
+        <v>8.5723578675121299</v>
+      </c>
       <c r="AA161" s="26">
         <v>4.4400000000000002E-2</v>
       </c>
@@ -16169,7 +16688,7 @@
         <v>1.36</v>
       </c>
     </row>
-    <row r="162" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>35</v>
       </c>
@@ -16242,6 +16761,9 @@
       <c r="Y162" s="24">
         <v>-4.8</v>
       </c>
+      <c r="Z162" s="25">
+        <v>8.6291613142033494</v>
+      </c>
       <c r="AA162" s="26">
         <v>3.8399999999999997E-2</v>
       </c>
@@ -16264,7 +16786,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="163" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>33</v>
       </c>
@@ -16337,6 +16859,9 @@
       <c r="Y163" s="24">
         <v>-5.2</v>
       </c>
+      <c r="Z163" s="25">
+        <v>8.6991598117008504</v>
+      </c>
       <c r="AA163" s="26">
         <v>3.0599999999999999E-2</v>
       </c>
@@ -16359,7 +16884,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="164" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>35</v>
       </c>
@@ -16435,6 +16960,9 @@
       <c r="Y164" s="24">
         <v>-5.2</v>
       </c>
+      <c r="Z164" s="25">
+        <v>8.6047093292431196</v>
+      </c>
       <c r="AA164" s="26">
         <v>3.44E-2</v>
       </c>
@@ -16457,7 +16985,7 @@
         <v>1.32</v>
       </c>
     </row>
-    <row r="165" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>35</v>
       </c>
@@ -16533,6 +17061,9 @@
       <c r="Y165" s="24">
         <v>-5</v>
       </c>
+      <c r="Z165" s="25">
+        <v>8.6531196543267992</v>
+      </c>
       <c r="AA165" s="26">
         <v>3.32E-2</v>
       </c>
@@ -16555,7 +17086,7 @@
         <v>1.28</v>
       </c>
     </row>
-    <row r="166" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>35</v>
       </c>
@@ -16631,6 +17162,9 @@
       <c r="Y166" s="24">
         <v>-5</v>
       </c>
+      <c r="Z166" s="25">
+        <v>8.6541622344431808</v>
+      </c>
       <c r="AA166" s="26">
         <v>3.3399999999999999E-2</v>
       </c>
@@ -16653,7 +17187,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="167" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>35</v>
       </c>
@@ -16726,6 +17260,9 @@
       <c r="Y167" s="24">
         <v>-5.2</v>
       </c>
+      <c r="Z167" s="25">
+        <v>8.5771460255140095</v>
+      </c>
       <c r="AA167" s="26">
         <v>3.1199999999999999E-2</v>
       </c>
@@ -16748,7 +17285,7 @@
         <v>1.28</v>
       </c>
     </row>
-    <row r="168" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B168" s="1">
         <v>5.2866666666666697</v>
       </c>
@@ -16821,6 +17358,9 @@
       <c r="Y168" s="24">
         <v>-5</v>
       </c>
+      <c r="Z168" s="25">
+        <v>8.4293025639872905</v>
+      </c>
       <c r="AA168" s="26">
         <v>0.03</v>
       </c>
@@ -16843,7 +17383,7 @@
         <v>1.38</v>
       </c>
     </row>
-    <row r="169" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>33</v>
       </c>
@@ -16919,6 +17459,9 @@
       <c r="Y169" s="24">
         <v>-5.8</v>
       </c>
+      <c r="Z169" s="25">
+        <v>8.72138490389748</v>
+      </c>
       <c r="AA169" s="26">
         <v>2.8000000000000001E-2</v>
       </c>
@@ -16941,7 +17484,7 @@
         <v>3.14</v>
       </c>
     </row>
-    <row r="170" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>33</v>
       </c>
@@ -17017,6 +17560,9 @@
       <c r="Y170" s="24">
         <v>-6</v>
       </c>
+      <c r="Z170" s="25">
+        <v>8.6212268220373396</v>
+      </c>
       <c r="AA170" s="26">
         <v>2.9000000000000001E-2</v>
       </c>
@@ -17039,7 +17585,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="171" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>33</v>
       </c>
@@ -17115,6 +17661,9 @@
       <c r="Y171" s="24">
         <v>-5.6</v>
       </c>
+      <c r="Z171" s="25">
+        <v>8.8062862014344692</v>
+      </c>
       <c r="AA171" s="26">
         <v>3.7999999999999999E-2</v>
       </c>
@@ -17137,7 +17686,7 @@
         <v>3.04</v>
       </c>
     </row>
-    <row r="172" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>35</v>
       </c>
@@ -17210,6 +17759,9 @@
       <c r="Y172" s="24">
         <v>-5.4</v>
       </c>
+      <c r="Z172" s="25">
+        <v>8.5782669371852798</v>
+      </c>
       <c r="AA172" s="26">
         <v>5.7000000000000002E-2</v>
       </c>
@@ -17232,7 +17784,7 @@
         <v>1.34</v>
       </c>
     </row>
-    <row r="173" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>35</v>
       </c>
@@ -17305,6 +17857,9 @@
       <c r="Y173" s="24">
         <v>-5.2</v>
       </c>
+      <c r="Z173" s="25">
+        <v>8.4574462219931892</v>
+      </c>
       <c r="AA173" s="26">
         <v>3.5200000000000002E-2</v>
       </c>
@@ -17327,7 +17882,7 @@
         <v>1.38</v>
       </c>
     </row>
-    <row r="174" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>35</v>
       </c>
@@ -17403,6 +17958,9 @@
       <c r="Y174" s="24">
         <v>-5.4</v>
       </c>
+      <c r="Z174" s="25">
+        <v>8.2674930214423092</v>
+      </c>
       <c r="AA174" s="26">
         <v>2.92E-2</v>
       </c>
@@ -17425,7 +17983,7 @@
         <v>1.44</v>
       </c>
     </row>
-    <row r="175" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>35</v>
       </c>
@@ -17501,6 +18059,9 @@
       <c r="Y175" s="24">
         <v>-5.4</v>
       </c>
+      <c r="Z175" s="25">
+        <v>8.4676400644795606</v>
+      </c>
       <c r="AA175" s="26">
         <v>3.7999999999999999E-2</v>
       </c>
@@ -17523,7 +18084,7 @@
         <v>1.42</v>
       </c>
     </row>
-    <row r="176" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>35</v>
       </c>
@@ -17599,6 +18160,9 @@
       <c r="Y176" s="24">
         <v>-5.4</v>
       </c>
+      <c r="Z176" s="25">
+        <v>8.4797292884350295</v>
+      </c>
       <c r="AA176" s="26">
         <v>3.7999999999999999E-2</v>
       </c>
@@ -17621,7 +18185,7 @@
         <v>1.36</v>
       </c>
     </row>
-    <row r="177" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>35</v>
       </c>
@@ -17697,6 +18261,9 @@
       <c r="Y177" s="24">
         <v>-5.4</v>
       </c>
+      <c r="Z177" s="25">
+        <v>8.5712810097890806</v>
+      </c>
       <c r="AA177" s="26">
         <v>3.3000000000000002E-2</v>
       </c>
@@ -17719,7 +18286,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="178" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>35</v>
       </c>
@@ -17795,6 +18362,9 @@
       <c r="Y178" s="24">
         <v>-5.4</v>
       </c>
+      <c r="Z178" s="25">
+        <v>8.38130922570598</v>
+      </c>
       <c r="AA178" s="26">
         <v>3.4599999999999999E-2</v>
       </c>
@@ -17817,7 +18387,7 @@
         <v>1.42</v>
       </c>
     </row>
-    <row r="179" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>35</v>
       </c>
@@ -17893,6 +18463,9 @@
       <c r="Y179" s="24">
         <v>-5.2</v>
       </c>
+      <c r="Z179" s="25">
+        <v>8.4126269273647196</v>
+      </c>
       <c r="AA179" s="26">
         <v>3.3799999999999997E-2</v>
       </c>
@@ -17915,7 +18488,7 @@
         <v>1.44</v>
       </c>
     </row>
-    <row r="180" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>34</v>
       </c>
@@ -17988,6 +18561,9 @@
       <c r="Y180" s="24">
         <v>-5</v>
       </c>
+      <c r="Z180" s="25">
+        <v>8.5032657908603593</v>
+      </c>
       <c r="AA180" s="26">
         <v>3.0599999999999999E-2</v>
       </c>
@@ -18010,7 +18586,7 @@
         <v>3.12</v>
       </c>
     </row>
-    <row r="181" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>35</v>
       </c>
@@ -18086,6 +18662,9 @@
       <c r="Y181" s="24">
         <v>-5</v>
       </c>
+      <c r="Z181" s="25">
+        <v>8.4591854493495102</v>
+      </c>
       <c r="AA181" s="26">
         <v>3.3599999999999998E-2</v>
       </c>
@@ -18108,7 +18687,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="182" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>35</v>
       </c>
@@ -18184,6 +18763,9 @@
       <c r="Y182" s="24">
         <v>-5</v>
       </c>
+      <c r="Z182" s="25">
+        <v>8.4669500444835109</v>
+      </c>
       <c r="AA182" s="26">
         <v>4.5199999999999997E-2</v>
       </c>
@@ -18206,7 +18788,7 @@
         <v>1.38</v>
       </c>
     </row>
-    <row r="183" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>33</v>
       </c>
@@ -18282,6 +18864,9 @@
       <c r="Y183" s="24">
         <v>-5</v>
       </c>
+      <c r="Z183" s="25">
+        <v>8.5091177166217999</v>
+      </c>
       <c r="AA183" s="26">
         <v>3.1800000000000002E-2</v>
       </c>
@@ -18304,7 +18889,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="184" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>35</v>
       </c>
@@ -18380,6 +18965,9 @@
       <c r="Y184" s="24">
         <v>-5.2</v>
       </c>
+      <c r="Z184" s="25">
+        <v>8.4877793486290507</v>
+      </c>
       <c r="AA184" s="26">
         <v>3.1600000000000003E-2</v>
       </c>
@@ -18402,7 +18990,7 @@
         <v>1.36</v>
       </c>
     </row>
-    <row r="185" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>35</v>
       </c>
@@ -18478,6 +19066,9 @@
       <c r="Y185" s="24">
         <v>-5.2</v>
       </c>
+      <c r="Z185" s="25">
+        <v>8.4794455971524592</v>
+      </c>
       <c r="AA185" s="26">
         <v>3.9600000000000003E-2</v>
       </c>
@@ -18500,7 +19091,7 @@
         <v>1.34</v>
       </c>
     </row>
-    <row r="186" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>35</v>
       </c>
@@ -18573,6 +19164,9 @@
       <c r="Y186" s="24">
         <v>-5.2</v>
       </c>
+      <c r="Z186" s="25">
+        <v>8.4936495288741494</v>
+      </c>
       <c r="AA186" s="26">
         <v>3.0800000000000001E-2</v>
       </c>
@@ -18595,7 +19189,7 @@
         <v>1.34</v>
       </c>
     </row>
-    <row r="187" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>36</v>
       </c>
@@ -18671,6 +19265,9 @@
       <c r="Y187" s="24">
         <v>-5.6</v>
       </c>
+      <c r="Z187" s="25">
+        <v>8.2638083972340102</v>
+      </c>
       <c r="AA187" s="26">
         <v>0.03</v>
       </c>
@@ -18693,7 +19290,7 @@
         <v>1.56</v>
       </c>
     </row>
-    <row r="188" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>36</v>
       </c>
@@ -18769,6 +19366,9 @@
       <c r="Y188" s="24">
         <v>-5.4</v>
       </c>
+      <c r="Z188" s="25">
+        <v>8.3890565200830505</v>
+      </c>
       <c r="AA188" s="26">
         <v>3.5799999999999998E-2</v>
       </c>
@@ -18791,7 +19391,7 @@
         <v>1.84</v>
       </c>
     </row>
-    <row r="189" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>33</v>
       </c>
@@ -18867,6 +19467,9 @@
       <c r="Y189" s="24">
         <v>-5.2</v>
       </c>
+      <c r="Z189" s="25">
+        <v>8.4499836574582403</v>
+      </c>
       <c r="AA189" s="26">
         <v>5.5599999999999997E-2</v>
       </c>
@@ -18889,7 +19492,7 @@
         <v>3.18</v>
       </c>
     </row>
-    <row r="190" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>35</v>
       </c>
@@ -18965,6 +19568,9 @@
       <c r="Y190" s="24">
         <v>-5.6</v>
       </c>
+      <c r="Z190" s="25">
+        <v>8.4413198085677106</v>
+      </c>
       <c r="AA190" s="26">
         <v>3.8199999999999998E-2</v>
       </c>
@@ -18987,7 +19593,7 @@
         <v>1.36</v>
       </c>
     </row>
-    <row r="191" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>34</v>
       </c>
@@ -19063,6 +19669,9 @@
       <c r="Y191" s="24">
         <v>-5.8</v>
       </c>
+      <c r="Z191" s="25">
+        <v>8.4535235825571693</v>
+      </c>
       <c r="AA191" s="26">
         <v>3.6799999999999999E-2</v>
       </c>
@@ -19085,7 +19694,7 @@
         <v>3.08</v>
       </c>
     </row>
-    <row r="192" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>34</v>
       </c>
@@ -19161,6 +19770,9 @@
       <c r="Y192" s="24">
         <v>-5.4</v>
       </c>
+      <c r="Z192" s="25">
+        <v>8.3704902834784498</v>
+      </c>
       <c r="AA192" s="26">
         <v>4.1200000000000001E-2</v>
       </c>
@@ -19183,7 +19795,7 @@
         <v>3.06</v>
       </c>
     </row>
-    <row r="193" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>35</v>
       </c>
@@ -19259,6 +19871,9 @@
       <c r="Y193" s="24">
         <v>-5.2</v>
       </c>
+      <c r="Z193" s="25">
+        <v>8.5007148289554806</v>
+      </c>
       <c r="AA193" s="26">
         <v>3.1800000000000002E-2</v>
       </c>
@@ -19281,7 +19896,7 @@
         <v>1.38</v>
       </c>
     </row>
-    <row r="194" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>33</v>
       </c>
@@ -19357,6 +19972,9 @@
       <c r="Y194" s="24">
         <v>-5</v>
       </c>
+      <c r="Z194" s="25">
+        <v>8.55388591424874</v>
+      </c>
       <c r="AA194" s="26">
         <v>4.7600000000000003E-2</v>
       </c>
@@ -19379,7 +19997,7 @@
         <v>3.18</v>
       </c>
     </row>
-    <row r="195" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>33</v>
       </c>
@@ -19452,6 +20070,9 @@
       <c r="Y195" s="24">
         <v>-5.8</v>
       </c>
+      <c r="Z195" s="25">
+        <v>8.4867106297167592</v>
+      </c>
       <c r="AA195" s="26">
         <v>5.04E-2</v>
       </c>
@@ -19474,7 +20095,7 @@
         <v>3.22</v>
       </c>
     </row>
-    <row r="196" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>33</v>
       </c>
@@ -19550,6 +20171,9 @@
       <c r="Y196" s="24">
         <v>-5.6</v>
       </c>
+      <c r="Z196" s="25">
+        <v>8.5120850894940503</v>
+      </c>
       <c r="AA196" s="26">
         <v>3.32E-2</v>
       </c>
@@ -19572,7 +20196,7 @@
         <v>3.32</v>
       </c>
     </row>
-    <row r="197" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>35</v>
       </c>
@@ -19648,6 +20272,9 @@
       <c r="Y197" s="24">
         <v>-5.8</v>
       </c>
+      <c r="Z197" s="25">
+        <v>8.2831369982479597</v>
+      </c>
       <c r="AA197" s="26">
         <v>3.2599999999999997E-2</v>
       </c>
@@ -19670,7 +20297,7 @@
         <v>1.46</v>
       </c>
     </row>
-    <row r="198" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>34</v>
       </c>
@@ -19746,6 +20373,9 @@
       <c r="Y198" s="24">
         <v>-5.4</v>
       </c>
+      <c r="Z198" s="25">
+        <v>8.2884041198648202</v>
+      </c>
       <c r="AA198" s="26">
         <v>3.4200000000000001E-2</v>
       </c>
@@ -19768,7 +20398,7 @@
         <v>2.98</v>
       </c>
     </row>
-    <row r="199" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>34</v>
       </c>
@@ -19844,6 +20474,9 @@
       <c r="Y199" s="24">
         <v>-5.2</v>
       </c>
+      <c r="Z199" s="25">
+        <v>8.2407271823506605</v>
+      </c>
       <c r="AA199" s="26">
         <v>3.3799999999999997E-2</v>
       </c>
@@ -19866,7 +20499,7 @@
         <v>2.92</v>
       </c>
     </row>
-    <row r="200" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>34</v>
       </c>
@@ -19942,6 +20575,9 @@
       <c r="Y200" s="24">
         <v>-5.4</v>
       </c>
+      <c r="Z200" s="25">
+        <v>8.2691051126567796</v>
+      </c>
       <c r="AA200" s="26">
         <v>4.3400000000000001E-2</v>
       </c>
@@ -19964,7 +20600,7 @@
         <v>1.42</v>
       </c>
     </row>
-    <row r="201" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>35</v>
       </c>
@@ -20040,6 +20676,9 @@
       <c r="Y201" s="24">
         <v>-5.2</v>
       </c>
+      <c r="Z201" s="25">
+        <v>8.4657481071721694</v>
+      </c>
       <c r="AA201" s="26">
         <v>4.2799999999999998E-2</v>
       </c>
@@ -20062,7 +20701,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="202" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>33</v>
       </c>
@@ -20138,6 +20777,9 @@
       <c r="Y202" s="24">
         <v>-5.4</v>
       </c>
+      <c r="Z202" s="25">
+        <v>8.4285216597474797</v>
+      </c>
       <c r="AA202" s="26">
         <v>5.2999999999999999E-2</v>
       </c>
@@ -20160,7 +20802,7 @@
         <v>3.32</v>
       </c>
     </row>
-    <row r="203" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>33</v>
       </c>
@@ -20236,6 +20878,9 @@
       <c r="Y203" s="24">
         <v>-5.6</v>
       </c>
+      <c r="Z203" s="25">
+        <v>8.4208604629857202</v>
+      </c>
       <c r="AA203" s="26">
         <v>0.04</v>
       </c>
@@ -20258,7 +20903,7 @@
         <v>3.28</v>
       </c>
     </row>
-    <row r="204" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>35</v>
       </c>
@@ -20331,6 +20976,9 @@
       <c r="Y204" s="24">
         <v>-6</v>
       </c>
+      <c r="Z204" s="25">
+        <v>8.5225052479890095</v>
+      </c>
       <c r="AA204" s="26">
         <v>5.3600000000000002E-2</v>
       </c>
@@ -20353,7 +21001,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="205" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>36</v>
       </c>
@@ -20429,6 +21077,9 @@
       <c r="Y205" s="24">
         <v>-6.2</v>
       </c>
+      <c r="Z205" s="25">
+        <v>8.4016988129907908</v>
+      </c>
       <c r="AA205" s="26">
         <v>3.04E-2</v>
       </c>
@@ -20451,7 +21102,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="206" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>35</v>
       </c>
@@ -20527,6 +21178,9 @@
       <c r="Y206" s="24">
         <v>-6.2</v>
       </c>
+      <c r="Z206" s="25">
+        <v>8.3432278895267</v>
+      </c>
       <c r="AA206" s="26">
         <v>3.0599999999999999E-2</v>
       </c>
@@ -20549,7 +21203,7 @@
         <v>1.46</v>
       </c>
     </row>
-    <row r="207" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>33</v>
       </c>
@@ -20625,6 +21279,9 @@
       <c r="Y207" s="24">
         <v>-6.4</v>
       </c>
+      <c r="Z207" s="25">
+        <v>8.5018848485553704</v>
+      </c>
       <c r="AA207" s="26">
         <v>3.1199999999999999E-2</v>
       </c>
@@ -20647,7 +21304,7 @@
         <v>3.26</v>
       </c>
     </row>
-    <row r="208" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>33</v>
       </c>
@@ -20723,6 +21380,9 @@
       <c r="Y208" s="24">
         <v>-6.4</v>
       </c>
+      <c r="Z208" s="25">
+        <v>8.4728563018196503</v>
+      </c>
       <c r="AA208" s="26">
         <v>3.2199999999999999E-2</v>
       </c>
@@ -20745,7 +21405,7 @@
         <v>3.26</v>
       </c>
     </row>
-    <row r="209" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>35</v>
       </c>
@@ -20818,6 +21478,9 @@
       <c r="Y209" s="24">
         <v>-5.4</v>
       </c>
+      <c r="Z209" s="25">
+        <v>8.3771705350344003</v>
+      </c>
       <c r="AA209" s="26">
         <v>4.8399999999999999E-2</v>
       </c>
@@ -20840,7 +21503,7 @@
         <v>3.02</v>
       </c>
     </row>
-    <row r="210" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B210" s="1">
         <v>5.46</v>
       </c>
@@ -20913,6 +21576,9 @@
       <c r="Y210" s="24">
         <v>-5.8</v>
       </c>
+      <c r="Z210" s="25">
+        <v>8.3663374437182902</v>
+      </c>
       <c r="AA210" s="26">
         <v>4.8599999999999997E-2</v>
       </c>
@@ -20935,7 +21601,7 @@
         <v>1.44</v>
       </c>
     </row>
-    <row r="211" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B211" s="1">
         <v>5.34</v>
       </c>
@@ -21008,6 +21674,9 @@
       <c r="Y211" s="24">
         <v>-5.8</v>
       </c>
+      <c r="Z211" s="25">
+        <v>8.3231018598649893</v>
+      </c>
       <c r="AA211" s="26">
         <v>3.4799999999999998E-2</v>
       </c>
@@ -21030,7 +21699,7 @@
         <v>1.36</v>
       </c>
     </row>
-    <row r="212" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>36</v>
       </c>
@@ -21106,6 +21775,9 @@
       <c r="Y212" s="24">
         <v>-5.6</v>
       </c>
+      <c r="Z212" s="25">
+        <v>8.3518975378982994</v>
+      </c>
       <c r="AA212" s="26">
         <v>4.5999999999999999E-2</v>
       </c>
@@ -21128,7 +21800,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="213" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>36</v>
       </c>
@@ -21204,6 +21876,9 @@
       <c r="Y213" s="24">
         <v>-5.8</v>
       </c>
+      <c r="Z213" s="25">
+        <v>8.2955272605153798</v>
+      </c>
       <c r="AA213" s="26">
         <v>3.5799999999999998E-2</v>
       </c>
@@ -21226,7 +21901,7 @@
         <v>1.48</v>
       </c>
     </row>
-    <row r="214" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>36</v>
       </c>
@@ -21302,6 +21977,9 @@
       <c r="Y214" s="24">
         <v>-6</v>
       </c>
+      <c r="Z214" s="25">
+        <v>8.4772788945705404</v>
+      </c>
       <c r="AA214" s="26">
         <v>3.2599999999999997E-2</v>
       </c>
@@ -21324,7 +22002,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="215" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>35</v>
       </c>
@@ -21400,6 +22078,9 @@
       <c r="Y215" s="24">
         <v>-5.8</v>
       </c>
+      <c r="Z215" s="25">
+        <v>8.4169279726580903</v>
+      </c>
       <c r="AA215" s="26">
         <v>1.5800000000000002E-2</v>
       </c>
@@ -21422,7 +22103,7 @@
         <v>1.32</v>
       </c>
     </row>
-    <row r="216" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>34</v>
       </c>
@@ -21498,6 +22179,9 @@
       <c r="Y216" s="24">
         <v>-5.6</v>
       </c>
+      <c r="Z216" s="25">
+        <v>8.41248445961598</v>
+      </c>
       <c r="AA216" s="26">
         <v>1.14E-2</v>
       </c>
@@ -21520,7 +22204,7 @@
         <v>3.26</v>
       </c>
     </row>
-    <row r="217" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>34</v>
       </c>
@@ -21596,6 +22280,9 @@
       <c r="Y217" s="24">
         <v>-5.6</v>
       </c>
+      <c r="Z217" s="25">
+        <v>8.5468052556485894</v>
+      </c>
       <c r="AA217" s="26">
         <v>0.03</v>
       </c>
@@ -21618,7 +22305,7 @@
         <v>3.04</v>
       </c>
     </row>
-    <row r="218" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>35</v>
       </c>
@@ -21694,6 +22381,9 @@
       <c r="Y218" s="24">
         <v>-5.8</v>
       </c>
+      <c r="Z218" s="25">
+        <v>8.2638589061897605</v>
+      </c>
       <c r="AA218" s="26">
         <v>2.5999999999999999E-3</v>
       </c>
@@ -21716,7 +22406,7 @@
         <v>1.44</v>
       </c>
     </row>
-    <row r="219" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>35</v>
       </c>
@@ -21792,6 +22482,9 @@
       <c r="Y219" s="24">
         <v>-5.4</v>
       </c>
+      <c r="Z219" s="25">
+        <v>8.2954251320649703</v>
+      </c>
       <c r="AA219" s="26">
         <v>4.7999999999999996E-3</v>
       </c>
@@ -21814,7 +22507,7 @@
         <v>1.38</v>
       </c>
     </row>
-    <row r="220" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>33</v>
       </c>
@@ -21890,6 +22583,9 @@
       <c r="Y220" s="24">
         <v>-5</v>
       </c>
+      <c r="Z220" s="25">
+        <v>8.5002118319413196</v>
+      </c>
       <c r="AA220" s="26">
         <v>8.9999999999999993E-3</v>
       </c>
@@ -21912,7 +22608,7 @@
         <v>3.38</v>
       </c>
     </row>
-    <row r="221" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>33</v>
       </c>
@@ -21988,6 +22684,9 @@
       <c r="Y221" s="24">
         <v>-5.6</v>
       </c>
+      <c r="Z221" s="25">
+        <v>8.4459041029846293</v>
+      </c>
       <c r="AA221" s="26">
         <v>9.4000000000000004E-3</v>
       </c>
@@ -22010,7 +22709,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="222" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>35</v>
       </c>
@@ -22086,6 +22785,9 @@
       <c r="Y222" s="24">
         <v>-5.8</v>
       </c>
+      <c r="Z222" s="25">
+        <v>8.47906722214341</v>
+      </c>
       <c r="AA222" s="26">
         <v>2.5999999999999999E-3</v>
       </c>
@@ -22108,7 +22810,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="223" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>35</v>
       </c>
@@ -22184,6 +22886,9 @@
       <c r="Y223" s="24">
         <v>-5.8</v>
       </c>
+      <c r="Z223" s="25">
+        <v>8.4474101994279707</v>
+      </c>
       <c r="AA223" s="26">
         <v>2.5999999999999999E-3</v>
       </c>
@@ -22206,7 +22911,7 @@
         <v>1.36</v>
       </c>
     </row>
-    <row r="224" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>35</v>
       </c>
@@ -22282,6 +22987,9 @@
       <c r="Y224" s="24">
         <v>-5.6</v>
       </c>
+      <c r="Z224" s="25">
+        <v>8.3834637946218198</v>
+      </c>
       <c r="AA224" s="26">
         <v>2.5999999999999999E-3</v>
       </c>
@@ -22304,7 +23012,7 @@
         <v>1.36</v>
       </c>
     </row>
-    <row r="225" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>36</v>
       </c>
@@ -22380,6 +23088,9 @@
       <c r="Y225" s="24">
         <v>-5.6</v>
       </c>
+      <c r="Z225" s="25">
+        <v>8.34451268024009</v>
+      </c>
       <c r="AA225" s="26">
         <v>2.5999999999999999E-3</v>
       </c>
@@ -22402,7 +23113,7 @@
         <v>1.82</v>
       </c>
     </row>
-    <row r="226" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>33</v>
       </c>
@@ -22478,6 +23189,9 @@
       <c r="Y226" s="24">
         <v>-5.6</v>
       </c>
+      <c r="Z226" s="25">
+        <v>8.5620808091561305</v>
+      </c>
       <c r="AA226" s="26">
         <v>1.54E-2</v>
       </c>
@@ -22500,7 +23214,7 @@
         <v>3.42</v>
       </c>
     </row>
-    <row r="227" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>34</v>
       </c>
@@ -22576,6 +23290,9 @@
       <c r="Y227" s="24">
         <v>-5.6</v>
       </c>
+      <c r="Z227" s="25">
+        <v>8.4171088054137293</v>
+      </c>
       <c r="AA227" s="26">
         <v>6.6E-3</v>
       </c>
@@ -22598,7 +23315,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="228" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>35</v>
       </c>
@@ -22668,6 +23385,9 @@
       <c r="Y228" s="24">
         <v>-5.2</v>
       </c>
+      <c r="Z228" s="25">
+        <v>8.4877864900113291</v>
+      </c>
       <c r="AA228" s="26">
         <v>3.5999999999999999E-3</v>
       </c>
@@ -22690,7 +23410,7 @@
         <v>1.44</v>
       </c>
     </row>
-    <row r="229" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>35</v>
       </c>
@@ -22766,6 +23486,9 @@
       <c r="Y229" s="24">
         <v>-5.2</v>
       </c>
+      <c r="Z229" s="25">
+        <v>8.3790728368062606</v>
+      </c>
       <c r="AA229" s="26">
         <v>4.7999999999999996E-3</v>
       </c>
@@ -22788,7 +23511,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="230" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>35</v>
       </c>
@@ -22864,6 +23587,9 @@
       <c r="Y230" s="24">
         <v>-5.4</v>
       </c>
+      <c r="Z230" s="25">
+        <v>8.4306408250935601</v>
+      </c>
       <c r="AA230" s="26">
         <v>2.5999999999999999E-3</v>
       </c>
@@ -22886,7 +23612,7 @@
         <v>1.36</v>
       </c>
     </row>
-    <row r="231" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>35</v>
       </c>
@@ -22962,6 +23688,9 @@
       <c r="Y231" s="24">
         <v>-5.4</v>
       </c>
+      <c r="Z231" s="25">
+        <v>8.4125721613430802</v>
+      </c>
       <c r="AA231" s="26">
         <v>2.5999999999999999E-3</v>
       </c>
@@ -22984,7 +23713,7 @@
         <v>1.36</v>
       </c>
     </row>
-    <row r="232" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>35</v>
       </c>
@@ -23060,6 +23789,9 @@
       <c r="Y232" s="24">
         <v>-5.2</v>
       </c>
+      <c r="Z232" s="25">
+        <v>8.4146801081894296</v>
+      </c>
       <c r="AA232" s="26">
         <v>2.5999999999999999E-3</v>
       </c>
@@ -23082,7 +23814,7 @@
         <v>1.36</v>
       </c>
     </row>
-    <row r="233" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>35</v>
       </c>
@@ -23155,6 +23887,9 @@
       <c r="Y233" s="24">
         <v>-5.2</v>
       </c>
+      <c r="Z233" s="25">
+        <v>8.4106385999569202</v>
+      </c>
       <c r="AA233" s="26">
         <v>1.9599999999999999E-2</v>
       </c>
@@ -23177,7 +23912,7 @@
         <v>1.36</v>
       </c>
     </row>
-    <row r="234" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>35</v>
       </c>
@@ -23253,6 +23988,9 @@
       <c r="Y234" s="24">
         <v>-5</v>
       </c>
+      <c r="Z234" s="25">
+        <v>8.5321343133065604</v>
+      </c>
       <c r="AA234" s="26">
         <v>2.3E-2</v>
       </c>
@@ -23275,7 +24013,7 @@
         <v>1.36</v>
       </c>
     </row>
-    <row r="235" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>33</v>
       </c>
@@ -23351,6 +24089,9 @@
       <c r="Y235" s="24">
         <v>-5.4</v>
       </c>
+      <c r="Z235" s="25">
+        <v>8.5332860257236192</v>
+      </c>
       <c r="AA235" s="26">
         <v>2.18E-2</v>
       </c>
@@ -23373,7 +24114,7 @@
         <v>3.42</v>
       </c>
     </row>
-    <row r="236" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>33</v>
       </c>
@@ -23449,6 +24190,9 @@
       <c r="Y236" s="24">
         <v>-5.6</v>
       </c>
+      <c r="Z236" s="25">
+        <v>8.5589733155769103</v>
+      </c>
       <c r="AA236" s="26">
         <v>2.8199999999999999E-2</v>
       </c>
@@ -23471,7 +24215,7 @@
         <v>3.38</v>
       </c>
     </row>
-    <row r="237" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B237" s="1">
         <v>5.26</v>
       </c>
@@ -23544,6 +24288,9 @@
       <c r="Y237" s="24">
         <v>-5</v>
       </c>
+      <c r="Z237" s="25">
+        <v>8.4364464244150899</v>
+      </c>
       <c r="AA237" s="26">
         <v>1.66E-2</v>
       </c>
@@ -23566,7 +24313,7 @@
         <v>1.62</v>
       </c>
     </row>
-    <row r="238" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>35</v>
       </c>
@@ -23642,6 +24389,9 @@
       <c r="Y238" s="24">
         <v>-5.4</v>
       </c>
+      <c r="Z238" s="25">
+        <v>8.54377072127971</v>
+      </c>
       <c r="AA238" s="26">
         <v>1.6199999999999999E-2</v>
       </c>
@@ -23664,7 +24414,7 @@
         <v>1.32</v>
       </c>
     </row>
-    <row r="239" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>35</v>
       </c>
@@ -23740,6 +24490,9 @@
       <c r="Y239" s="24">
         <v>-5.8</v>
       </c>
+      <c r="Z239" s="25">
+        <v>8.5727943298768405</v>
+      </c>
       <c r="AA239" s="26">
         <v>1.26E-2</v>
       </c>
@@ -23762,7 +24515,7 @@
         <v>1.34</v>
       </c>
     </row>
-    <row r="240" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>35</v>
       </c>
@@ -23838,6 +24591,9 @@
       <c r="Y240" s="24">
         <v>-5.6</v>
       </c>
+      <c r="Z240" s="25">
+        <v>8.4035248577561799</v>
+      </c>
       <c r="AA240" s="26">
         <v>1.0200000000000001E-2</v>
       </c>
@@ -23860,7 +24616,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="241" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>35</v>
       </c>
@@ -23936,6 +24692,9 @@
       <c r="Y241" s="24">
         <v>-5.6</v>
       </c>
+      <c r="Z241" s="25">
+        <v>8.3716050383424694</v>
+      </c>
       <c r="AA241" s="26">
         <v>1.0800000000000001E-2</v>
       </c>
@@ -23958,7 +24717,7 @@
         <v>1.38</v>
       </c>
     </row>
-    <row r="242" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>35</v>
       </c>
@@ -24034,6 +24793,9 @@
       <c r="Y242" s="24">
         <v>-5.2</v>
       </c>
+      <c r="Z242" s="25">
+        <v>8.3745258585539109</v>
+      </c>
       <c r="AA242" s="26">
         <v>1.24E-2</v>
       </c>
@@ -24056,7 +24818,7 @@
         <v>1.38</v>
       </c>
     </row>
-    <row r="243" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>33</v>
       </c>
@@ -24132,6 +24894,9 @@
       <c r="Y243" s="24">
         <v>-5.4</v>
       </c>
+      <c r="Z243" s="25">
+        <v>8.5182532540690392</v>
+      </c>
       <c r="AA243" s="26">
         <v>9.5999999999999992E-3</v>
       </c>
@@ -24154,7 +24919,7 @@
         <v>3.42</v>
       </c>
     </row>
-    <row r="244" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>33</v>
       </c>
@@ -24227,6 +24992,9 @@
       <c r="Y244" s="24">
         <v>-5.4</v>
       </c>
+      <c r="Z244" s="25">
+        <v>8.4540056695628802</v>
+      </c>
       <c r="AA244" s="26">
         <v>2.92E-2</v>
       </c>
@@ -24249,7 +25017,7 @@
         <v>3.42</v>
       </c>
     </row>
-    <row r="245" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>34</v>
       </c>
@@ -24325,6 +25093,9 @@
       <c r="Y245" s="24">
         <v>-5</v>
       </c>
+      <c r="Z245" s="25">
+        <v>8.4440751584787108</v>
+      </c>
       <c r="AA245" s="26">
         <v>1.18E-2</v>
       </c>
@@ -24347,7 +25118,7 @@
         <v>3.34</v>
       </c>
     </row>
-    <row r="246" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>35</v>
       </c>
@@ -24423,6 +25194,9 @@
       <c r="Y246" s="24">
         <v>-4.8</v>
       </c>
+      <c r="Z246" s="25">
+        <v>8.3503533129517304</v>
+      </c>
       <c r="AA246" s="26">
         <v>4.1999999999999997E-3</v>
       </c>
@@ -24445,7 +25219,7 @@
         <v>1.44</v>
       </c>
     </row>
-    <row r="247" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>35</v>
       </c>
@@ -24521,6 +25295,9 @@
       <c r="Y247" s="24">
         <v>-4.8</v>
       </c>
+      <c r="Z247" s="25">
+        <v>8.3743989691984808</v>
+      </c>
       <c r="AA247" s="26">
         <v>6.1999999999999998E-3</v>
       </c>
@@ -24543,7 +25320,7 @@
         <v>1.44</v>
       </c>
     </row>
-    <row r="248" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>35</v>
       </c>
@@ -24619,6 +25396,9 @@
       <c r="Y248" s="24">
         <v>-4.8</v>
       </c>
+      <c r="Z248" s="25">
+        <v>8.4143425454860292</v>
+      </c>
       <c r="AA248" s="26">
         <v>2.3999999999999998E-3</v>
       </c>
@@ -24641,7 +25421,7 @@
         <v>1.46</v>
       </c>
     </row>
-    <row r="249" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>33</v>
       </c>
@@ -24717,6 +25497,9 @@
       <c r="Y249" s="24">
         <v>-5.2</v>
       </c>
+      <c r="Z249" s="25">
+        <v>8.4618995139475395</v>
+      </c>
       <c r="AA249" s="26">
         <v>2.3999999999999998E-3</v>
       </c>
@@ -24739,7 +25522,7 @@
         <v>3.36</v>
       </c>
     </row>
-    <row r="250" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>33</v>
       </c>
@@ -24809,6 +25592,9 @@
       <c r="Y250" s="24">
         <v>-5.8</v>
       </c>
+      <c r="Z250" s="25">
+        <v>8.5739449921662292</v>
+      </c>
       <c r="AA250" s="26">
         <v>2.5999999999999999E-3</v>
       </c>
@@ -24831,7 +25617,7 @@
         <v>3.42</v>
       </c>
     </row>
-    <row r="251" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>35</v>
       </c>
@@ -24907,6 +25693,9 @@
       <c r="Y251" s="24">
         <v>-6</v>
       </c>
+      <c r="Z251" s="25">
+        <v>8.44387472676752</v>
+      </c>
       <c r="AA251" s="26">
         <v>2.5999999999999999E-3</v>
       </c>
@@ -24929,7 +25718,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="252" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>35</v>
       </c>
@@ -25002,6 +25791,9 @@
       <c r="Y252" s="24">
         <v>-5</v>
       </c>
+      <c r="Z252" s="25">
+        <v>8.5421879030166608</v>
+      </c>
       <c r="AA252" s="26">
         <v>2.5999999999999999E-3</v>
       </c>
@@ -25024,7 +25816,7 @@
         <v>1.44</v>
       </c>
     </row>
-    <row r="253" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>35</v>
       </c>
@@ -25100,6 +25892,9 @@
       <c r="Y253" s="24">
         <v>-5</v>
       </c>
+      <c r="Z253" s="25">
+        <v>8.3542755924908807</v>
+      </c>
       <c r="AA253" s="26">
         <v>6.0000000000000001E-3</v>
       </c>
@@ -25122,7 +25917,7 @@
         <v>1.48</v>
       </c>
     </row>
-    <row r="254" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>35</v>
       </c>
@@ -25192,6 +25987,9 @@
       <c r="Y254" s="24">
         <v>-4.8</v>
       </c>
+      <c r="Z254" s="25">
+        <v>8.5010591063063004</v>
+      </c>
       <c r="AA254" s="26">
         <v>1.9599999999999999E-2</v>
       </c>
@@ -25214,7 +26012,7 @@
         <v>1.38</v>
       </c>
     </row>
-    <row r="255" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>33</v>
       </c>
@@ -25290,6 +26088,9 @@
       <c r="Y255" s="24">
         <v>-4.5999999999999996</v>
       </c>
+      <c r="Z255" s="25">
+        <v>8.5520806175382091</v>
+      </c>
       <c r="AA255" s="26">
         <v>4.7600000000000003E-2</v>
       </c>
@@ -25312,7 +26113,7 @@
         <v>3.28</v>
       </c>
     </row>
-    <row r="256" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>33</v>
       </c>
@@ -25388,6 +26189,9 @@
       <c r="Y256" s="24">
         <v>-4.8</v>
       </c>
+      <c r="Z256" s="25">
+        <v>8.5275636499837901</v>
+      </c>
       <c r="AA256" s="26">
         <v>1.3599999999999999E-2</v>
       </c>
@@ -25410,7 +26214,7 @@
         <v>3.32</v>
       </c>
     </row>
-    <row r="257" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B257" s="1">
         <v>5.2</v>
       </c>
@@ -25468,6 +26272,9 @@
       <c r="Y257" s="24">
         <v>-4.5999999999999996</v>
       </c>
+      <c r="Z257" s="25">
+        <v>8.5441377524677904</v>
+      </c>
       <c r="AA257" s="26">
         <v>1.0999999999999999E-2</v>
       </c>
@@ -25484,7 +26291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B258" s="1">
         <v>5.2733333333333299</v>
       </c>
@@ -25557,6 +26364,9 @@
       <c r="Y258" s="24">
         <v>-5.2</v>
       </c>
+      <c r="Z258" s="25">
+        <v>8.6297276787744703</v>
+      </c>
       <c r="AA258" s="26">
         <v>2.8199999999999999E-2</v>
       </c>
@@ -25579,7 +26389,7 @@
         <v>1.52</v>
       </c>
     </row>
-    <row r="259" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>33</v>
       </c>
@@ -25655,6 +26465,9 @@
       <c r="Y259" s="24">
         <v>-6</v>
       </c>
+      <c r="Z259" s="25">
+        <v>8.6763747302491794</v>
+      </c>
       <c r="AA259" s="26">
         <v>1.4800000000000001E-2</v>
       </c>
@@ -25677,7 +26490,7 @@
         <v>3.32</v>
       </c>
     </row>
-    <row r="260" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>35</v>
       </c>
@@ -25753,6 +26566,9 @@
       <c r="Y260" s="24">
         <v>-5.6</v>
       </c>
+      <c r="Z260" s="25">
+        <v>8.4461048740271494</v>
+      </c>
       <c r="AA260" s="26">
         <v>1.0800000000000001E-2</v>
       </c>
@@ -25775,7 +26591,7 @@
         <v>1.44</v>
       </c>
     </row>
-    <row r="261" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>35</v>
       </c>
@@ -25851,6 +26667,9 @@
       <c r="Y261" s="24">
         <v>-5.8</v>
       </c>
+      <c r="Z261" s="25">
+        <v>8.4609220751655592</v>
+      </c>
       <c r="AA261" s="26">
         <v>2.5999999999999999E-3</v>
       </c>
@@ -25873,7 +26692,7 @@
         <v>1.38</v>
       </c>
     </row>
-    <row r="262" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>33</v>
       </c>
@@ -25949,6 +26768,9 @@
       <c r="Y262" s="24">
         <v>-5.8</v>
       </c>
+      <c r="Z262" s="25">
+        <v>8.6107262394442294</v>
+      </c>
       <c r="AA262" s="26">
         <v>2.5999999999999999E-3</v>
       </c>
@@ -25971,7 +26793,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="263" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>33</v>
       </c>
@@ -26047,6 +26869,9 @@
       <c r="Y263" s="24">
         <v>-5.8</v>
       </c>
+      <c r="Z263" s="25">
+        <v>8.5920583473965397</v>
+      </c>
       <c r="AA263" s="26">
         <v>7.4000000000000003E-3</v>
       </c>
@@ -26069,7 +26894,7 @@
         <v>3.38</v>
       </c>
     </row>
-    <row r="264" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>35</v>
       </c>
@@ -26145,6 +26970,9 @@
       <c r="Y264" s="24">
         <v>-5.8</v>
       </c>
+      <c r="Z264" s="25">
+        <v>8.4561854415427504</v>
+      </c>
       <c r="AA264" s="26">
         <v>3.8E-3</v>
       </c>
@@ -26167,7 +26995,7 @@
         <v>1.46</v>
       </c>
     </row>
-    <row r="265" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>33</v>
       </c>
@@ -26243,6 +27071,9 @@
       <c r="Y265" s="24">
         <v>-5.6</v>
       </c>
+      <c r="Z265" s="25">
+        <v>8.5691727904493806</v>
+      </c>
       <c r="AA265" s="26">
         <v>2.3999999999999998E-3</v>
       </c>
@@ -26265,7 +27096,7 @@
         <v>3.36</v>
       </c>
     </row>
-    <row r="266" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>36</v>
       </c>
@@ -26341,6 +27172,9 @@
       <c r="Y266" s="24">
         <v>-6.2</v>
       </c>
+      <c r="Z266" s="25">
+        <v>8.24500987290339</v>
+      </c>
       <c r="AA266" s="26">
         <v>6.7999999999999996E-3</v>
       </c>
@@ -26363,7 +27197,7 @@
         <v>1.62</v>
       </c>
     </row>
-    <row r="267" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>36</v>
       </c>
@@ -26439,6 +27273,9 @@
       <c r="Y267" s="24">
         <v>-6</v>
       </c>
+      <c r="Z267" s="25">
+        <v>8.2501283262624803</v>
+      </c>
       <c r="AA267" s="26">
         <v>2.5999999999999999E-3</v>
       </c>
@@ -26461,7 +27298,7 @@
         <v>1.62</v>
       </c>
     </row>
-    <row r="268" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>36</v>
       </c>
@@ -26537,6 +27374,9 @@
       <c r="Y268" s="24">
         <v>-5.8</v>
       </c>
+      <c r="Z268" s="25">
+        <v>8.1167123746790892</v>
+      </c>
       <c r="AA268" s="26">
         <v>6.1999999999999998E-3</v>
       </c>
@@ -26557,6 +27397,1361 @@
       </c>
       <c r="AG268" s="32">
         <v>1.62</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCA5677B-DBFE-43EE-AD58-C37EA8551386}">
+  <dimension ref="A1:A268"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>8.5801320384736997</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>8.4810556832272006</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>8.5964979067144007</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>8.6307277653526597</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>8.5095197985521605</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>8.5746943822932309</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>8.4643626892924804</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>8.5395400835439101</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>8.5183549275069801</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>8.5660893238426095</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>8.5557441145145798</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>8.6210304160297699</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>8.5809602023146105</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>8.52618189919618</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>8.3087273113175399</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>8.53933116083717</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>8.5666263542477097</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>8.4704515942927792</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>8.4753851172132393</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>8.6424148816708506</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>8.6060222176196906</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>8.5445970266709992</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>8.3892116973328701</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>8.3789981530632698</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>8.4324716924770797</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>8.5595036146250898</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>8.3465365963074696</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>8.4825403143926206</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>8.5774731589201103</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>8.5397904021033799</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>8.4817581505137394</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>8.6891218559752801</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>8.5205151776520598</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>8.4597583126299192</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>8.5263832306495502</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>8.4220784362735408</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>8.4245120486608691</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>8.4308047118477596</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>8.5318361747351492</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>8.5986438740949307</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>8.5934855133137606</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>8.4239461673798406</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>8.4518675325100894</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>8.5088875831356496</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>8.4640797486519599</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>8.5013831728768796</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>8.5332505077580691</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>8.4995575548463602</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>8.5062318501090104</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>8.5307872334414991</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>8.5029296446082299</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>8.5007390243082597</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>8.5120649738294194</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>8.5692525461676201</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>8.6031827341020506</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>8.5488951114912304</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>8.4695621502967899</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>8.5579498755475605</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>8.4806209946399402</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>8.6633211574752291</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>8.6620985158108006</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>8.5889125967794797</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>8.6152486315986092</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>8.6870352047411696</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>8.4971410735502797</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>8.3611702706050597</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>8.3989310620617506</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <v>8.4066890196691002</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <v>8.3455628387563898</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <v>8.4399807454055402</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <v>8.5004124590250907</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <v>8.3992902082949001</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <v>8.3669531347268506</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A75">
+        <v>8.5122246883505603</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A76">
+        <v>8.3254253540912799</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A77">
+        <v>8.4974317159839305</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A78">
+        <v>8.5194776952178497</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A79">
+        <v>8.5211103339731906</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A80">
+        <v>8.6275648219477308</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A81">
+        <v>8.5938841093858098</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A82">
+        <v>8.7244930761393906</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A83">
+        <v>8.5699106844419095</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A84">
+        <v>8.5506125805107605</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A85">
+        <v>8.6617565932138305</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A86">
+        <v>8.3752196985982206</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A87">
+        <v>8.5031370557481001</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A88">
+        <v>8.6075027356779703</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A89">
+        <v>8.4239564707132395</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A90">
+        <v>8.4222047600767294</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A91">
+        <v>8.5738490925024493</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A92">
+        <v>8.5346191570140792</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A93">
+        <v>8.2983201425290805</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A94">
+        <v>8.3385803663701896</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A95">
+        <v>8.3705674248029602</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A96">
+        <v>8.4810284081854395</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A97">
+        <v>8.4858979311587195</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A98">
+        <v>8.6189983817171694</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A99">
+        <v>8.5373722382894197</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A100">
+        <v>8.4403031204608094</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A101">
+        <v>8.4404665239249095</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A102">
+        <v>8.5707310230964708</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A103">
+        <v>8.6588811097258898</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A104">
+        <v>8.6851111343497394</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A105">
+        <v>8.6370131072088299</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A106">
+        <v>8.7008461547820595</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A107">
+        <v>8.6141926736012397</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A108">
+        <v>8.76840434066896</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A109">
+        <v>8.5162631117527106</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A110">
+        <v>8.5723521065914401</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A111">
+        <v>8.4789574587378596</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A112">
+        <v>8.5148078867326795</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A113">
+        <v>8.5296654053185392</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A114">
+        <v>8.5207866761426398</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A115">
+        <v>8.5781761172088196</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A116">
+        <v>8.5495073031453508</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A117">
+        <v>8.6207697015919909</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A118">
+        <v>8.6664727744113605</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A119">
+        <v>8.5767205528574593</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A120">
+        <v>8.6195264789676909</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A121">
+        <v>8.5603255201164092</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A122">
+        <v>8.6086260406634594</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A123">
+        <v>8.6322433013768904</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A124">
+        <v>8.7021888888923602</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A125">
+        <v>8.6317862940419996</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A126">
+        <v>8.5751521839719391</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A127">
+        <v>8.4687685725455903</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A128">
+        <v>8.4259227313012097</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A129">
+        <v>8.3067921561023503</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A130">
+        <v>8.4186074879814292</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A131">
+        <v>8.4543852373729997</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A132">
+        <v>8.5656556738149199</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A133">
+        <v>8.5428564497013895</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A134">
+        <v>8.5705572134712895</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A135">
+        <v>8.4877843820439196</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A136">
+        <v>8.4252400172117206</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A137">
+        <v>8.4949841036081501</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A138">
+        <v>8.4619211694566605</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A139">
+        <v>8.4506711016209408</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A140">
+        <v>8.4467933773149504</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A141">
+        <v>8.4618487170742895</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A142">
+        <v>8.4966395006994695</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A143">
+        <v>8.3914723638475195</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A144">
+        <v>8.4828190031086201</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A145">
+        <v>8.5265383230665304</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A146">
+        <v>8.3629744439232105</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A147">
+        <v>8.5284898214558904</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A148">
+        <v>8.5242788583503799</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A149">
+        <v>8.52009909830395</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A150">
+        <v>8.5124308732703593</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A151">
+        <v>8.5679641616268594</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A152">
+        <v>8.5803498249263495</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A153">
+        <v>8.5258222632462104</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A154">
+        <v>8.4531026677374701</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A155">
+        <v>8.6846447388477905</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A156">
+        <v>8.4890304529949301</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A157">
+        <v>8.5785325076601797</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A158">
+        <v>8.5739249664758095</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A159">
+        <v>8.5149584470197297</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A160">
+        <v>8.5404600834272806</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A161">
+        <v>8.5723578675121299</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A162">
+        <v>8.6291613142033494</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A163">
+        <v>8.6991598117008504</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A164">
+        <v>8.6047093292431196</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A165">
+        <v>8.6531196543267992</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A166">
+        <v>8.6541622344431808</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A167">
+        <v>8.5771460255140095</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A168">
+        <v>8.4293025639872905</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A169">
+        <v>8.72138490389748</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A170">
+        <v>8.6212268220373396</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A171">
+        <v>8.8062862014344692</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A172">
+        <v>8.5782669371852798</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A173">
+        <v>8.4574462219931892</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A174">
+        <v>8.2674930214423092</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A175">
+        <v>8.4676400644795606</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A176">
+        <v>8.4797292884350295</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A177">
+        <v>8.5712810097890806</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A178">
+        <v>8.38130922570598</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A179">
+        <v>8.4126269273647196</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A180">
+        <v>8.5032657908603593</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A181">
+        <v>8.4591854493495102</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A182">
+        <v>8.4669500444835109</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A183">
+        <v>8.5091177166217999</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A184">
+        <v>8.4877793486290507</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A185">
+        <v>8.4794455971524592</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A186">
+        <v>8.4936495288741494</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A187">
+        <v>8.2638083972340102</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A188">
+        <v>8.3890565200830505</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A189">
+        <v>8.4499836574582403</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A190">
+        <v>8.4413198085677106</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A191">
+        <v>8.4535235825571693</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A192">
+        <v>8.3704902834784498</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A193">
+        <v>8.5007148289554806</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A194">
+        <v>8.55388591424874</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A195">
+        <v>8.4867106297167592</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A196">
+        <v>8.5120850894940503</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A197">
+        <v>8.2831369982479597</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A198">
+        <v>8.2884041198648202</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A199">
+        <v>8.2407271823506605</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A200">
+        <v>8.2691051126567796</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A201">
+        <v>8.4657481071721694</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A202">
+        <v>8.4285216597474797</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A203">
+        <v>8.4208604629857202</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A204">
+        <v>8.5225052479890095</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A205">
+        <v>8.4016988129907908</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A206">
+        <v>8.3432278895267</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A207">
+        <v>8.5018848485553704</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A208">
+        <v>8.4728563018196503</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A209">
+        <v>8.3771705350344003</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A210">
+        <v>8.3663374437182902</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A211">
+        <v>8.3231018598649893</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A212">
+        <v>8.3518975378982994</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A213">
+        <v>8.2955272605153798</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A214">
+        <v>8.4772788945705404</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A215">
+        <v>8.4169279726580903</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A216">
+        <v>8.41248445961598</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A217">
+        <v>8.5468052556485894</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A218">
+        <v>8.2638589061897605</v>
+      </c>
+    </row>
+    <row r="219" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A219">
+        <v>8.2954251320649703</v>
+      </c>
+    </row>
+    <row r="220" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A220">
+        <v>8.5002118319413196</v>
+      </c>
+    </row>
+    <row r="221" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A221">
+        <v>8.4459041029846293</v>
+      </c>
+    </row>
+    <row r="222" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A222">
+        <v>8.47906722214341</v>
+      </c>
+    </row>
+    <row r="223" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A223">
+        <v>8.4474101994279707</v>
+      </c>
+    </row>
+    <row r="224" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A224">
+        <v>8.3834637946218198</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A225">
+        <v>8.34451268024009</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A226">
+        <v>8.5620808091561305</v>
+      </c>
+    </row>
+    <row r="227" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A227">
+        <v>8.4171088054137293</v>
+      </c>
+    </row>
+    <row r="228" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A228">
+        <v>8.4877864900113291</v>
+      </c>
+    </row>
+    <row r="229" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A229">
+        <v>8.3790728368062606</v>
+      </c>
+    </row>
+    <row r="230" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A230">
+        <v>8.4306408250935601</v>
+      </c>
+    </row>
+    <row r="231" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A231">
+        <v>8.4125721613430802</v>
+      </c>
+    </row>
+    <row r="232" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A232">
+        <v>8.4146801081894296</v>
+      </c>
+    </row>
+    <row r="233" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A233">
+        <v>8.4106385999569202</v>
+      </c>
+    </row>
+    <row r="234" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A234">
+        <v>8.5321343133065604</v>
+      </c>
+    </row>
+    <row r="235" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A235">
+        <v>8.5332860257236192</v>
+      </c>
+    </row>
+    <row r="236" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A236">
+        <v>8.5589733155769103</v>
+      </c>
+    </row>
+    <row r="237" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A237">
+        <v>8.4364464244150899</v>
+      </c>
+    </row>
+    <row r="238" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A238">
+        <v>8.54377072127971</v>
+      </c>
+    </row>
+    <row r="239" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A239">
+        <v>8.5727943298768405</v>
+      </c>
+    </row>
+    <row r="240" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A240">
+        <v>8.4035248577561799</v>
+      </c>
+    </row>
+    <row r="241" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A241">
+        <v>8.3716050383424694</v>
+      </c>
+    </row>
+    <row r="242" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A242">
+        <v>8.3745258585539109</v>
+      </c>
+    </row>
+    <row r="243" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A243">
+        <v>8.5182532540690392</v>
+      </c>
+    </row>
+    <row r="244" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A244">
+        <v>8.4540056695628802</v>
+      </c>
+    </row>
+    <row r="245" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A245">
+        <v>8.4440751584787108</v>
+      </c>
+    </row>
+    <row r="246" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A246">
+        <v>8.3503533129517304</v>
+      </c>
+    </row>
+    <row r="247" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A247">
+        <v>8.3743989691984808</v>
+      </c>
+    </row>
+    <row r="248" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A248">
+        <v>8.4143425454860292</v>
+      </c>
+    </row>
+    <row r="249" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A249">
+        <v>8.4618995139475395</v>
+      </c>
+    </row>
+    <row r="250" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A250">
+        <v>8.5739449921662292</v>
+      </c>
+    </row>
+    <row r="251" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A251">
+        <v>8.44387472676752</v>
+      </c>
+    </row>
+    <row r="252" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A252">
+        <v>8.5421879030166608</v>
+      </c>
+    </row>
+    <row r="253" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A253">
+        <v>8.3542755924908807</v>
+      </c>
+    </row>
+    <row r="254" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A254">
+        <v>8.5010591063063004</v>
+      </c>
+    </row>
+    <row r="255" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A255">
+        <v>8.5520806175382091</v>
+      </c>
+    </row>
+    <row r="256" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A256">
+        <v>8.5275636499837901</v>
+      </c>
+    </row>
+    <row r="257" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A257">
+        <v>8.5441377524677904</v>
+      </c>
+    </row>
+    <row r="258" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A258">
+        <v>8.6297276787744703</v>
+      </c>
+    </row>
+    <row r="259" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A259">
+        <v>8.6763747302491794</v>
+      </c>
+    </row>
+    <row r="260" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A260">
+        <v>8.4461048740271494</v>
+      </c>
+    </row>
+    <row r="261" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A261">
+        <v>8.4609220751655592</v>
+      </c>
+    </row>
+    <row r="262" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A262">
+        <v>8.6107262394442294</v>
+      </c>
+    </row>
+    <row r="263" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A263">
+        <v>8.5920583473965397</v>
+      </c>
+    </row>
+    <row r="264" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A264">
+        <v>8.4561854415427504</v>
+      </c>
+    </row>
+    <row r="265" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A265">
+        <v>8.5691727904493806</v>
+      </c>
+    </row>
+    <row r="266" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A266">
+        <v>8.24500987290339</v>
+      </c>
+    </row>
+    <row r="267" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A267">
+        <v>8.2501283262624803</v>
+      </c>
+    </row>
+    <row r="268" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A268">
+        <v>8.1167123746790892</v>
       </c>
     </row>
   </sheetData>
